--- a/genshin/458974739427895111_2020-11-18_20-16-24.xlsx
+++ b/genshin/458974739427895111_2020-11-18_20-16-24.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -539,10 +555,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2020-12-12 01:49:38</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44177.07613425926</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
@@ -618,10 +632,8 @@
           <t>3721081196</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2020-11-29 01:10:43</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44164.04910879629</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -693,10 +705,8 @@
           <t>3743537279</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2020-11-24 23:26:33</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44159.97677083333</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -756,10 +766,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2020-11-24 19:02:14</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44159.7932175926</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -835,10 +843,8 @@
           <t>3740069536</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2020-11-23 22:41:59</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44158.94582175926</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -906,10 +912,8 @@
           <t>3721135524</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2020-11-23 05:13:20</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44158.21759259259</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -981,10 +985,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2020-11-21 22:33:29</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44156.93991898148</v>
       </c>
       <c r="I8" t="n">
         <v>1</v>
@@ -1060,10 +1062,8 @@
           <t>3730922674</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2020-11-21 15:36:52</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44156.65060185185</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1131,10 +1131,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2020-11-21 03:53:09</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44156.16190972222</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1194,10 +1192,8 @@
           <t>3728402506</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2020-11-20 21:50:04</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44155.90976851852</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1269,10 +1265,8 @@
           <t>3727787745</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2020-11-20 19:18:46</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44155.80469907408</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1336,10 +1330,8 @@
           <t>3726858569</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2020-11-20 14:22:26</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44155.59891203704</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1415,10 +1407,8 @@
           <t>3721063531</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2020-11-20 13:19:01</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44155.55487268518</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1482,10 +1472,8 @@
           <t>3723009934</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2020-11-20 10:39:32</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44155.44412037037</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1557,10 +1545,8 @@
           <t>3726134706</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2020-11-20 10:02:59</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44155.41873842593</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1637,10 +1623,8 @@
           <t>3721117669</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2020-11-20 01:44:04</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44155.07226851852</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1708,10 +1692,8 @@
           <t>3724569740</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2020-11-19 20:36:30</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44154.85868055555</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1775,10 +1757,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2020-11-19 20:26:57</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44154.85204861111</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1842,10 +1822,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2020-11-19 19:47:09</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44154.82440972222</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1905,10 +1883,8 @@
           <t>3724221382</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2020-11-19 18:58:57</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44154.7909375</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -1980,10 +1956,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2020-11-19 17:33:58</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44154.7319212963</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2051,10 +2025,8 @@
           <t>3722736207</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2020-11-19 17:01:59</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44154.70971064815</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2130,10 +2102,8 @@
           <t>3723713859</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2020-11-19 16:26:42</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44154.68520833334</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2210,10 +2180,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2020-11-19 15:25:44</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44154.64287037037</v>
       </c>
       <c r="I25" t="n">
         <v>1</v>
@@ -2289,10 +2257,8 @@
           <t>3721063531</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2020-11-19 15:01:11</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44154.62582175926</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2368,10 +2334,8 @@
           <t>3723358989</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2020-11-19 13:56:03</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44154.58059027778</v>
       </c>
       <c r="I27" t="n">
         <v>3</v>
@@ -2444,10 +2408,8 @@
           <t>3723309607</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2020-11-19 13:38:27</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44154.56836805555</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2507,10 +2469,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2020-11-19 13:17:49</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44154.55403935185</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2582,10 +2542,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2020-11-19 12:13:51</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44154.50961805556</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2649,10 +2607,8 @@
           <t>3723009934</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2020-11-19 12:08:17</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44154.50575231481</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2724,10 +2680,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2020-11-19 12:01:39</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44154.50114583333</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -2791,10 +2745,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2020-11-19 12:00:34</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44154.50039351852</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -2862,10 +2814,8 @@
           <t>3722977308</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2020-11-19 11:56:24</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44154.4975</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -2933,10 +2883,8 @@
           <t>3721066854</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2020-11-19 11:43:26</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44154.48849537037</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3008,10 +2956,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2020-11-19 11:29:03</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44154.47850694445</v>
       </c>
       <c r="I36" t="n">
         <v>2</v>
@@ -3075,10 +3021,8 @@
           <t>3722886878</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2020-11-19 11:23:01</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44154.47431712963</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3150,10 +3094,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2020-11-19 11:10:06</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44154.46534722222</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3213,10 +3155,8 @@
           <t>3722736207</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2020-11-19 10:46:34</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44154.44900462963</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3288,10 +3228,8 @@
           <t>3722694078</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2020-11-19 10:35:36</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44154.44138888889</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3367,10 +3305,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2020-11-19 10:30:00</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44154.4375</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3438,10 +3374,8 @@
           <t>3722760904</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2020-11-19 10:29:11</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44154.43693287037</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3513,10 +3447,8 @@
           <t>3722736207</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2020-11-19 10:19:32</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44154.43023148148</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3592,10 +3524,8 @@
           <t>3722729849</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2020-11-19 10:19:05</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44154.42991898148</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -3655,10 +3585,8 @@
           <t>3722720752</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2020-11-19 10:12:04</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44154.4250462963</v>
       </c>
       <c r="I45" t="n">
         <v>6</v>
@@ -3734,10 +3662,8 @@
           <t>3722694078</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2020-11-19 10:03:08</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44154.41884259259</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -3805,10 +3731,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2020-11-19 10:02:38</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44154.41849537037</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -3876,10 +3800,8 @@
           <t>3721775944</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2020-11-19 10:00:05</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44154.41672453703</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -3947,10 +3869,8 @@
           <t>3721775944</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2020-11-19 09:57:51</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44154.41517361111</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -4022,10 +3942,8 @@
           <t>3722680428</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2020-11-19 09:53:39</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44154.41225694444</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -4089,10 +4007,8 @@
           <t>3721775944</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2020-11-19 09:47:02</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44154.40766203704</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -4164,10 +4080,8 @@
           <t>3722649752</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2020-11-19 09:42:47</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44154.40471064814</v>
       </c>
       <c r="I52" t="n">
         <v>1</v>
@@ -4243,10 +4157,8 @@
           <t>3721150558</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2020-11-19 09:33:51</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44154.39850694445</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -4322,10 +4234,8 @@
           <t>3722636487</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2020-11-19 09:33:38</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44154.39835648148</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -4401,10 +4311,8 @@
           <t>3721164095</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2020-11-19 09:33:20</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44154.39814814815</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -4472,10 +4380,8 @@
           <t>3721775944</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2020-11-19 09:30:01</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44154.39584490741</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -4547,10 +4453,8 @@
           <t>3721775944</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2020-11-19 09:29:41</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44154.39561342593</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -4622,10 +4526,8 @@
           <t>3721149316</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2020-11-19 09:19:56</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44154.38884259259</v>
       </c>
       <c r="I58" t="n">
         <v>1</v>
@@ -4693,10 +4595,8 @@
           <t>3722606290</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2020-11-19 09:18:46</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44154.38803240741</v>
       </c>
       <c r="I59" t="n">
         <v>1</v>
@@ -4764,10 +4664,8 @@
           <t>3722585009</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2020-11-19 09:03:49</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44154.37765046296</v>
       </c>
       <c r="I60" t="n">
         <v>2</v>
@@ -4831,10 +4729,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2020-11-19 08:24:56</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44154.35064814815</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -4902,10 +4798,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2020-11-19 08:23:08</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44154.34939814815</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -4977,10 +4871,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2020-11-19 08:09:52</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44154.34018518519</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -5049,10 +4941,8 @@
           <t>3721499117</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2020-11-19 07:55:03</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44154.32989583333</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -5120,10 +5010,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2020-11-19 07:52:26</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44154.3280787037</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -5191,10 +5079,8 @@
           <t>3721066854</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2020-11-19 07:36:52</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44154.31726851852</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -5258,10 +5144,8 @@
           <t>3722432143</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2020-11-19 07:33:54</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44154.31520833333</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -5325,10 +5209,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2020-11-19 07:28:57</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44154.31177083333</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -5404,10 +5286,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2020-11-19 07:20:29</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44154.3058912037</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -5471,10 +5351,8 @@
           <t>3721149316</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2020-11-19 07:20:03</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44154.30559027778</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -5550,10 +5428,8 @@
           <t>3722404568</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2020-11-19 07:14:02</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44154.30141203704</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -5622,10 +5498,8 @@
           <t>3722409101</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2020-11-19 07:12:00</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44154.3</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
@@ -5693,10 +5567,8 @@
           <t>3722394181</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2020-11-19 06:56:25</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44154.28917824074</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -5764,10 +5636,8 @@
           <t>3721209392</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2020-11-19 05:55:52</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44154.24712962963</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -5835,10 +5705,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2020-11-19 05:52:10</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44154.24456018519</v>
       </c>
       <c r="I75" t="n">
         <v>1</v>
@@ -5898,10 +5766,8 @@
           <t>3721153122</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2020-11-19 05:43:45</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44154.23871527778</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -5969,10 +5835,8 @@
           <t>3721209392</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2020-11-19 05:43:20</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44154.23842592593</v>
       </c>
       <c r="I77" t="n">
         <v>1</v>
@@ -6040,10 +5904,8 @@
           <t>3722354995</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2020-11-19 05:41:45</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44154.23732638889</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -6107,10 +5969,8 @@
           <t>3721209392</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2020-11-19 05:40:52</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44154.23671296296</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -6178,10 +6038,8 @@
           <t>3721209392</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2020-11-19 05:39:25</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44154.23570601852</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -6249,10 +6107,8 @@
           <t>3721209392</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2020-11-19 05:38:57</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44154.23538194445</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -6320,10 +6176,8 @@
           <t>3721209392</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2020-11-19 05:37:59</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44154.23471064815</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -6391,10 +6245,8 @@
           <t>3721209392</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2020-11-19 05:36:35</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44154.23373842592</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -6462,10 +6314,8 @@
           <t>3721209392</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2020-11-19 05:35:42</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44154.233125</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -6533,10 +6383,8 @@
           <t>3721209392</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2020-11-19 05:35:11</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44154.23276620371</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -6604,10 +6452,8 @@
           <t>3721209392</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2020-11-19 05:34:26</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44154.23224537037</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -6675,10 +6521,8 @@
           <t>3721209392</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2020-11-19 05:34:11</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44154.23207175926</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -6746,10 +6590,8 @@
           <t>3721209392</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2020-11-19 05:33:01</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44154.23126157407</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -6817,10 +6659,8 @@
           <t>3721209392</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2020-11-19 05:32:14</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44154.2307175926</v>
       </c>
       <c r="I89" t="n">
         <v>1</v>
@@ -6888,10 +6728,8 @@
           <t>3721209392</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2020-11-19 05:31:54</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44154.23048611111</v>
       </c>
       <c r="I90" t="n">
         <v>1</v>
@@ -6959,10 +6797,8 @@
           <t>3721209392</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2020-11-19 05:31:35</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44154.2302662037</v>
       </c>
       <c r="I91" t="n">
         <v>1</v>
@@ -7030,10 +6866,8 @@
           <t>3721209392</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2020-11-19 05:31:12</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44154.23</v>
       </c>
       <c r="I92" t="n">
         <v>1</v>
@@ -7101,10 +6935,8 @@
           <t>3721209392</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2020-11-19 05:30:20</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44154.22939814815</v>
       </c>
       <c r="I93" t="n">
         <v>1</v>
@@ -7172,10 +7004,8 @@
           <t>3721209392</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2020-11-19 05:29:46</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44154.22900462963</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
@@ -7243,10 +7073,8 @@
           <t>3721209392</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2020-11-19 05:29:25</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44154.22876157407</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
@@ -7314,10 +7142,8 @@
           <t>3721209392</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2020-11-19 05:28:29</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44154.22811342592</v>
       </c>
       <c r="I96" t="n">
         <v>1</v>
@@ -7385,10 +7211,8 @@
           <t>3721209392</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2020-11-19 05:28:08</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44154.22787037037</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -7456,10 +7280,8 @@
           <t>3721209392</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2020-11-19 05:27:32</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44154.2274537037</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
@@ -7527,10 +7349,8 @@
           <t>3721209392</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2020-11-19 05:27:07</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44154.22716435185</v>
       </c>
       <c r="I99" t="n">
         <v>1</v>
@@ -7598,10 +7418,8 @@
           <t>3721209392</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2020-11-19 05:26:50</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44154.22696759259</v>
       </c>
       <c r="I100" t="n">
         <v>1</v>
@@ -7669,10 +7487,8 @@
           <t>3721209392</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2020-11-19 05:26:10</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44154.22650462963</v>
       </c>
       <c r="I101" t="n">
         <v>1</v>
@@ -7740,10 +7556,8 @@
           <t>3721209392</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2020-11-19 05:25:49</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44154.22626157408</v>
       </c>
       <c r="I102" t="n">
         <v>1</v>
@@ -7811,10 +7625,8 @@
           <t>3721164095</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2020-11-19 02:46:14</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44154.11543981481</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
@@ -7878,10 +7690,8 @@
           <t>3721366061</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2020-11-19 02:41:50</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44154.11238425926</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
@@ -7953,10 +7763,8 @@
           <t>3722266089</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2020-11-19 02:40:05</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44154.11116898148</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
@@ -8028,10 +7836,8 @@
           <t>3721209392</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2020-11-19 02:38:14</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44154.10988425926</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
@@ -8103,10 +7909,8 @@
           <t>3721209392</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2020-11-19 02:36:26</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44154.10863425926</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
@@ -8178,10 +7982,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2020-11-19 02:11:02</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44154.09099537037</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
@@ -8245,10 +8047,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2020-11-19 02:04:34</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44154.08650462963</v>
       </c>
       <c r="I109" t="n">
         <v>2</v>
@@ -8316,10 +8116,8 @@
           <t>3722213505</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2020-11-19 01:54:42</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44154.07965277778</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
@@ -8383,10 +8181,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2020-11-19 01:42:52</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44154.07143518519</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
@@ -8462,10 +8258,8 @@
           <t>3721209392</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2020-11-19 01:33:49</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44154.06515046296</v>
       </c>
       <c r="I112" t="n">
         <v>1</v>
@@ -8541,10 +8335,8 @@
           <t>3721164095</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2020-11-19 01:31:02</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44154.06321759259</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
@@ -8616,10 +8408,8 @@
           <t>3722174010</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2020-11-19 01:27:06</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44154.06048611111</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
@@ -8687,10 +8477,8 @@
           <t>3722156214</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2020-11-19 01:25:37</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44154.05945601852</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
@@ -8766,10 +8554,8 @@
           <t>3722158573</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2020-11-19 01:18:34</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44154.05456018518</v>
       </c>
       <c r="I116" t="n">
         <v>12</v>
@@ -8837,10 +8623,8 @@
           <t>3722156214</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2020-11-19 01:14:52</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44154.05199074074</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
@@ -8908,10 +8692,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2020-11-19 01:09:38</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44154.04835648148</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
@@ -8975,10 +8757,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2020-11-19 01:09:13</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44154.04806712963</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
@@ -9054,10 +8834,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2020-11-19 01:08:00</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44154.04722222222</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
@@ -9129,10 +8907,8 @@
           <t>3721164095</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2020-11-19 01:06:25</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44154.04612268518</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
@@ -9204,10 +8980,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2020-11-19 01:02:24</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44154.04333333333</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
@@ -9279,10 +9053,8 @@
           <t>3722117699</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2020-11-19 00:59:20</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44154.0412037037</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
@@ -9354,10 +9126,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2020-11-19 00:53:50</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44154.03738425926</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
@@ -9429,10 +9199,8 @@
           <t>3722096135</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2020-11-19 00:48:23</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44154.03359953704</v>
       </c>
       <c r="I125" t="n">
         <v>1</v>
@@ -9504,10 +9272,8 @@
           <t>3722095983</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2020-11-19 00:48:13</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44154.03348379629</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
@@ -9571,10 +9337,8 @@
           <t>3721267930</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2020-11-19 00:47:49</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44154.03320601852</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
@@ -9642,10 +9406,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2020-11-19 00:47:47</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44154.03318287037</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
@@ -9721,10 +9483,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2020-11-19 00:38:18</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44154.02659722222</v>
       </c>
       <c r="I129" t="n">
         <v>1</v>
@@ -9792,10 +9552,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2020-11-19 00:34:38</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44154.02405092592</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
@@ -9859,10 +9617,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2020-11-19 00:31:31</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44154.02188657408</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
@@ -9930,10 +9686,8 @@
           <t>3721164095</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2020-11-19 00:25:20</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44154.01759259259</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
@@ -9993,10 +9747,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2020-11-19 00:25:17</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44154.01755787037</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
@@ -10068,10 +9820,8 @@
           <t>3722030903</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2020-11-19 00:24:50</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44154.01724537037</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
@@ -10147,10 +9897,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2020-11-19 00:22:04</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44154.01532407408</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
@@ -10226,10 +9974,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2020-11-19 00:21:51</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44154.01517361111</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
@@ -10305,10 +10051,8 @@
           <t>3721209392</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2020-11-19 00:16:38</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44154.01155092593</v>
       </c>
       <c r="I137" t="n">
         <v>1</v>
@@ -10376,10 +10120,8 @@
           <t>3721209392</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2020-11-19 00:13:51</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44154.00961805556</v>
       </c>
       <c r="I138" t="n">
         <v>1</v>
@@ -10447,10 +10189,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2020-11-19 00:12:24</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44154.00861111111</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
@@ -10514,10 +10254,8 @@
           <t>3721209392</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2020-11-19 00:12:17</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44154.00853009259</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
@@ -10585,10 +10323,8 @@
           <t>3721366061</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2020-11-19 00:11:58</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44154.00831018519</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
@@ -10660,10 +10396,8 @@
           <t>3721209392</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2020-11-19 00:11:30</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44154.00798611111</v>
       </c>
       <c r="I142" t="n">
         <v>1</v>
@@ -10739,10 +10473,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2020-11-19 00:11:21</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44154.00788194445</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
@@ -10814,10 +10546,8 @@
           <t>3721209392</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2020-11-19 00:10:56</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44154.00759259259</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
@@ -10885,10 +10615,8 @@
           <t>3721209392</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2020-11-19 00:10:27</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44154.00725694445</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
@@ -10956,10 +10684,8 @@
           <t>3721209392</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2020-11-19 00:09:47</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44154.00679398148</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
@@ -11027,10 +10753,8 @@
           <t>3721209392</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2020-11-19 00:07:50</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44154.00543981481</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
@@ -11098,10 +10822,8 @@
           <t>3721209392</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2020-11-19 00:06:41</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44154.0046412037</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
@@ -11169,10 +10891,8 @@
           <t>3721959557</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2020-11-19 00:05:48</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44154.00402777778</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
@@ -11244,10 +10964,8 @@
           <t>3721209392</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2020-11-19 00:05:46</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44154.00400462963</v>
       </c>
       <c r="I150" t="n">
         <v>1</v>
@@ -11315,10 +11033,8 @@
           <t>3721954249</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2020-11-19 00:04:57</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44154.0034375</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
@@ -11386,10 +11102,8 @@
           <t>3721149316</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2020-11-19 00:01:13</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44154.00084490741</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
@@ -11453,10 +11167,8 @@
           <t>3721117669</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2020-11-19 00:01:01</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44154.00070601852</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
@@ -11524,10 +11236,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2020-11-18 23:55:07</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44153.9966087963</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
@@ -11599,10 +11309,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2020-11-18 23:53:13</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44153.99528935185</v>
       </c>
       <c r="I155" t="n">
         <v>1</v>
@@ -11680,10 +11388,8 @@
           <t>3721897766</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2020-11-18 23:48:15</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44153.99184027778</v>
       </c>
       <c r="I156" t="n">
         <v>2</v>
@@ -11760,10 +11466,8 @@
           <t>3721209392</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2020-11-18 23:48:02</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44153.99168981481</v>
       </c>
       <c r="I157" t="n">
         <v>1</v>
@@ -11831,10 +11535,8 @@
           <t>3721209392</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2020-11-18 23:46:34</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44153.9906712963</v>
       </c>
       <c r="I158" t="n">
         <v>1</v>
@@ -11910,10 +11612,8 @@
           <t>3721875579</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2020-11-18 23:42:06</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44153.98756944444</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
@@ -11985,10 +11685,8 @@
           <t>3721861858</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2020-11-18 23:39:23</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44153.98568287037</v>
       </c>
       <c r="I160" t="n">
         <v>2</v>
@@ -12056,10 +11754,8 @@
           <t>3721222262</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2020-11-18 23:37:58</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44153.98469907408</v>
       </c>
       <c r="I161" t="n">
         <v>1</v>
@@ -12131,10 +11827,8 @@
           <t>3721153122</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2020-11-18 23:36:51</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44153.98392361111</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
@@ -12202,10 +11896,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2020-11-18 23:34:43</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44153.98244212963</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
@@ -12281,10 +11973,8 @@
           <t>3721142853</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2020-11-18 23:26:31</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44153.97674768518</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
@@ -12360,10 +12050,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2020-11-18 23:25:48</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44153.97625</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
@@ -12435,10 +12123,8 @@
           <t>3721805399</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2020-11-18 23:23:53</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44153.97491898148</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
@@ -12510,10 +12196,8 @@
           <t>3721117669</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2020-11-18 23:20:26</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44153.97252314815</v>
       </c>
       <c r="I167" t="n">
         <v>1</v>
@@ -12581,10 +12265,8 @@
           <t>3721775944</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2020-11-18 23:17:17</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44153.97033564815</v>
       </c>
       <c r="I168" t="n">
         <v>3</v>
@@ -12652,10 +12334,8 @@
           <t>3721142853</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2020-11-18 23:17:17</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44153.97033564815</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
@@ -12727,10 +12407,8 @@
           <t>3721761771</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2020-11-18 23:14:24</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44153.96833333333</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
@@ -12798,10 +12476,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2020-11-18 23:13:12</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44153.9675</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
@@ -12869,10 +12545,8 @@
           <t>3721742687</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2020-11-18 23:10:54</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44153.96590277777</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
@@ -12936,10 +12610,8 @@
           <t>3721736308</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2020-11-18 23:09:02</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44153.96460648148</v>
       </c>
       <c r="I173" t="n">
         <v>1</v>
@@ -13015,10 +12687,8 @@
           <t>3721081196</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2020-11-18 23:06:09</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44153.96260416666</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
@@ -13082,10 +12752,8 @@
           <t>3721149316</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2020-11-18 23:03:29</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44153.96075231482</v>
       </c>
       <c r="I175" t="n">
         <v>5</v>
@@ -13153,10 +12821,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2020-11-18 23:02:17</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44153.95991898148</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
@@ -13232,10 +12898,8 @@
           <t>3721117669</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2020-11-18 23:02:01</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44153.9597337963</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
@@ -13303,10 +12967,8 @@
           <t>3721678897</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2020-11-18 22:56:39</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44153.95600694444</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
@@ -13373,10 +13035,8 @@
           <t>3721667877</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2020-11-18 22:53:09</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44153.95357638889</v>
       </c>
       <c r="I179" t="n">
         <v>1</v>
@@ -13448,10 +13108,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2020-11-18 22:52:29</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44153.95311342592</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
@@ -13515,10 +13173,8 @@
           <t>3721209392</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2020-11-18 22:50:35</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44153.95179398148</v>
       </c>
       <c r="I181" t="n">
         <v>4</v>
@@ -13590,10 +13246,8 @@
           <t>3721164095</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2020-11-18 22:47:16</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44153.94949074074</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
@@ -13657,10 +13311,8 @@
           <t>3721164095</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2020-11-18 22:46:04</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44153.94865740741</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
@@ -13724,10 +13376,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2020-11-18 22:44:11</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44153.94734953704</v>
       </c>
       <c r="I184" t="n">
         <v>1</v>
@@ -13800,10 +13450,8 @@
           <t>3721598065</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2020-11-18 22:37:58</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44153.94303240741</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
@@ -13875,10 +13523,8 @@
           <t>3721589847</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2020-11-18 22:35:45</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44153.94149305556</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
@@ -13942,10 +13588,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2020-11-18 22:34:23</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44153.94054398148</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
@@ -14021,10 +13665,8 @@
           <t>3721582133</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2020-11-18 22:33:35</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44153.93998842593</v>
       </c>
       <c r="I188" t="n">
         <v>2</v>
@@ -14100,10 +13742,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2020-11-18 22:30:09</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44153.93760416667</v>
       </c>
       <c r="I189" t="n">
         <v>1</v>
@@ -14167,10 +13807,8 @@
           <t>3721575192</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2020-11-18 22:29:36</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44153.93722222222</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
@@ -14246,10 +13884,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2020-11-18 22:25:08</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44153.93412037037</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
@@ -14326,10 +13962,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>2020-11-18 22:24:59</t>
-        </is>
+      <c r="H192" s="1" t="n">
+        <v>44153.9340162037</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
@@ -14393,10 +14027,8 @@
           <t>3721158975</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>2020-11-18 22:23:41</t>
-        </is>
+      <c r="H193" s="1" t="n">
+        <v>44153.93311342593</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
@@ -14464,10 +14096,8 @@
           <t>3721537508</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>2020-11-18 22:22:57</t>
-        </is>
+      <c r="H194" s="1" t="n">
+        <v>44153.93260416666</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
@@ -14535,10 +14165,8 @@
           <t>3721545504</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>2020-11-18 22:22:31</t>
-        </is>
+      <c r="H195" s="1" t="n">
+        <v>44153.93230324074</v>
       </c>
       <c r="I195" t="n">
         <v>1</v>
@@ -14606,10 +14234,8 @@
           <t>3721081196</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>2020-11-18 22:22:31</t>
-        </is>
+      <c r="H196" s="1" t="n">
+        <v>44153.93230324074</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
@@ -14677,10 +14303,8 @@
           <t>3721117669</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>2020-11-18 22:21:13</t>
-        </is>
+      <c r="H197" s="1" t="n">
+        <v>44153.93140046296</v>
       </c>
       <c r="I197" t="n">
         <v>2</v>
@@ -14752,10 +14376,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2020-11-18 22:19:16</t>
-        </is>
+      <c r="H198" s="1" t="n">
+        <v>44153.93004629629</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
@@ -14828,10 +14450,8 @@
           <t>3721504104</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2020-11-18 22:14:48</t>
-        </is>
+      <c r="H199" s="1" t="n">
+        <v>44153.92694444444</v>
       </c>
       <c r="I199" t="n">
         <v>1</v>
@@ -14903,10 +14523,8 @@
           <t>3721499117</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2020-11-18 22:14:20</t>
-        </is>
+      <c r="H200" s="1" t="n">
+        <v>44153.92662037037</v>
       </c>
       <c r="I200" t="n">
         <v>4</v>
@@ -14970,10 +14588,8 @@
           <t>3721502513</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2020-11-18 22:13:42</t>
-        </is>
+      <c r="H201" s="1" t="n">
+        <v>44153.92618055556</v>
       </c>
       <c r="I201" t="n">
         <v>2</v>
@@ -15053,10 +14669,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2020-11-18 22:10:58</t>
-        </is>
+      <c r="H202" s="1" t="n">
+        <v>44153.92428240741</v>
       </c>
       <c r="I202" t="n">
         <v>2</v>
@@ -15132,10 +14746,8 @@
           <t>3721122879</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2020-11-18 22:10:16</t>
-        </is>
+      <c r="H203" s="1" t="n">
+        <v>44153.92379629629</v>
       </c>
       <c r="I203" t="n">
         <v>1</v>
@@ -15211,10 +14823,8 @@
           <t>3721483162</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2020-11-18 22:09:56</t>
-        </is>
+      <c r="H204" s="1" t="n">
+        <v>44153.92356481482</v>
       </c>
       <c r="I204" t="n">
         <v>3</v>
@@ -15278,10 +14888,8 @@
           <t>3721164095</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2020-11-18 22:09:18</t>
-        </is>
+      <c r="H205" s="1" t="n">
+        <v>44153.923125</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>
@@ -15351,10 +14959,8 @@
           <t>3721486239</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2020-11-18 22:09:17</t>
-        </is>
+      <c r="H206" s="1" t="n">
+        <v>44153.92311342592</v>
       </c>
       <c r="I206" t="n">
         <v>0</v>
@@ -15430,10 +15036,8 @@
           <t>3721119758</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2020-11-18 22:08:50</t>
-        </is>
+      <c r="H207" s="1" t="n">
+        <v>44153.92280092592</v>
       </c>
       <c r="I207" t="n">
         <v>0</v>
@@ -15501,10 +15105,8 @@
           <t>3721142853</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2020-11-18 22:08:20</t>
-        </is>
+      <c r="H208" s="1" t="n">
+        <v>44153.9224537037</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
@@ -15580,10 +15182,8 @@
           <t>3721119758</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2020-11-18 22:08:18</t>
-        </is>
+      <c r="H209" s="1" t="n">
+        <v>44153.92243055555</v>
       </c>
       <c r="I209" t="n">
         <v>0</v>
@@ -15655,10 +15255,8 @@
           <t>3721469548</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2020-11-18 22:07:14</t>
-        </is>
+      <c r="H210" s="1" t="n">
+        <v>44153.92168981482</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
@@ -15734,10 +15332,8 @@
           <t>3721472088</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>2020-11-18 22:06:16</t>
-        </is>
+      <c r="H211" s="1" t="n">
+        <v>44153.92101851852</v>
       </c>
       <c r="I211" t="n">
         <v>0</v>
@@ -15805,10 +15401,8 @@
           <t>3721453443</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2020-11-18 22:02:43</t>
-        </is>
+      <c r="H212" s="1" t="n">
+        <v>44153.91855324074</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
@@ -15880,10 +15474,8 @@
           <t>3721451402</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>2020-11-18 22:01:13</t>
-        </is>
+      <c r="H213" s="1" t="n">
+        <v>44153.91751157407</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
@@ -15955,10 +15547,8 @@
           <t>3721439831</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2020-11-18 22:00:05</t>
-        </is>
+      <c r="H214" s="1" t="n">
+        <v>44153.91672453703</v>
       </c>
       <c r="I214" t="n">
         <v>1</v>
@@ -16022,10 +15612,8 @@
           <t>3721164095</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2020-11-18 21:58:33</t>
-        </is>
+      <c r="H215" s="1" t="n">
+        <v>44153.91565972222</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
@@ -16097,10 +15685,8 @@
           <t>3721209392</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2020-11-18 21:58:20</t>
-        </is>
+      <c r="H216" s="1" t="n">
+        <v>44153.91550925926</v>
       </c>
       <c r="I216" t="n">
         <v>0</v>
@@ -16172,10 +15758,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>2020-11-18 21:55:49</t>
-        </is>
+      <c r="H217" s="1" t="n">
+        <v>44153.91376157408</v>
       </c>
       <c r="I217" t="n">
         <v>0</v>
@@ -16251,10 +15835,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2020-11-18 21:55:28</t>
-        </is>
+      <c r="H218" s="1" t="n">
+        <v>44153.91351851852</v>
       </c>
       <c r="I218" t="n">
         <v>0</v>
@@ -16318,10 +15900,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2020-11-18 21:54:52</t>
-        </is>
+      <c r="H219" s="1" t="n">
+        <v>44153.91310185185</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
@@ -16393,10 +15973,8 @@
           <t>3721366061</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2020-11-18 21:54:07</t>
-        </is>
+      <c r="H220" s="1" t="n">
+        <v>44153.91258101852</v>
       </c>
       <c r="I220" t="n">
         <v>0</v>
@@ -16468,10 +16046,8 @@
           <t>3721209392</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2020-11-18 21:54:04</t>
-        </is>
+      <c r="H221" s="1" t="n">
+        <v>44153.9125462963</v>
       </c>
       <c r="I221" t="n">
         <v>3</v>
@@ -16543,10 +16119,8 @@
           <t>3721421271</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2020-11-18 21:53:32</t>
-        </is>
+      <c r="H222" s="1" t="n">
+        <v>44153.91217592593</v>
       </c>
       <c r="I222" t="n">
         <v>2</v>
@@ -16624,10 +16198,8 @@
           <t>3721209392</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2020-11-18 21:49:25</t>
-        </is>
+      <c r="H223" s="1" t="n">
+        <v>44153.90931712963</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
@@ -16699,10 +16271,8 @@
           <t>3721153122</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>2020-11-18 21:48:53</t>
-        </is>
+      <c r="H224" s="1" t="n">
+        <v>44153.90894675926</v>
       </c>
       <c r="I224" t="n">
         <v>0</v>
@@ -16770,10 +16340,8 @@
           <t>3721164095</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2020-11-18 21:48:32</t>
-        </is>
+      <c r="H225" s="1" t="n">
+        <v>44153.9087037037</v>
       </c>
       <c r="I225" t="n">
         <v>1</v>
@@ -16841,10 +16409,8 @@
           <t>3721153122</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>2020-11-18 21:48:14</t>
-        </is>
+      <c r="H226" s="1" t="n">
+        <v>44153.90849537037</v>
       </c>
       <c r="I226" t="n">
         <v>0</v>
@@ -16912,10 +16478,8 @@
           <t>3721106416</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>2020-11-18 21:47:48</t>
-        </is>
+      <c r="H227" s="1" t="n">
+        <v>44153.90819444445</v>
       </c>
       <c r="I227" t="n">
         <v>2</v>
@@ -16988,10 +16552,8 @@
           <t>3721153122</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2020-11-18 21:47:35</t>
-        </is>
+      <c r="H228" s="1" t="n">
+        <v>44153.90804398148</v>
       </c>
       <c r="I228" t="n">
         <v>2</v>
@@ -17059,10 +16621,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>2020-11-18 21:46:41</t>
-        </is>
+      <c r="H229" s="1" t="n">
+        <v>44153.90741898148</v>
       </c>
       <c r="I229" t="n">
         <v>0</v>
@@ -17126,10 +16686,8 @@
           <t>3721164095</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>2020-11-18 21:46:32</t>
-        </is>
+      <c r="H230" s="1" t="n">
+        <v>44153.90731481482</v>
       </c>
       <c r="I230" t="n">
         <v>1</v>
@@ -17198,10 +16756,8 @@
           <t>3721384468</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>2020-11-18 21:45:48</t>
-        </is>
+      <c r="H231" s="1" t="n">
+        <v>44153.90680555555</v>
       </c>
       <c r="I231" t="n">
         <v>0</v>
@@ -17277,10 +16833,8 @@
           <t>3721164095</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>2020-11-18 21:45:37</t>
-        </is>
+      <c r="H232" s="1" t="n">
+        <v>44153.90667824074</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
@@ -17348,10 +16902,8 @@
           <t>3721164095</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>2020-11-18 21:44:50</t>
-        </is>
+      <c r="H233" s="1" t="n">
+        <v>44153.90613425926</v>
       </c>
       <c r="I233" t="n">
         <v>1</v>
@@ -17419,10 +16971,8 @@
           <t>3721164095</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>2020-11-18 21:43:58</t>
-        </is>
+      <c r="H234" s="1" t="n">
+        <v>44153.90553240741</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
@@ -17494,10 +17044,8 @@
           <t>3721359138</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>2020-11-18 21:42:38</t>
-        </is>
+      <c r="H235" s="1" t="n">
+        <v>44153.90460648148</v>
       </c>
       <c r="I235" t="n">
         <v>4</v>
@@ -17573,10 +17121,8 @@
           <t>3721063531</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>2020-11-18 21:42:00</t>
-        </is>
+      <c r="H236" s="1" t="n">
+        <v>44153.90416666667</v>
       </c>
       <c r="I236" t="n">
         <v>7</v>
@@ -17644,10 +17190,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>2020-11-18 21:41:38</t>
-        </is>
+      <c r="H237" s="1" t="n">
+        <v>44153.90391203704</v>
       </c>
       <c r="I237" t="n">
         <v>0</v>
@@ -17711,10 +17255,8 @@
           <t>3721209392</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>2020-11-18 21:40:31</t>
-        </is>
+      <c r="H238" s="1" t="n">
+        <v>44153.90313657407</v>
       </c>
       <c r="I238" t="n">
         <v>2</v>
@@ -17782,10 +17324,8 @@
           <t>3721164095</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>2020-11-18 21:40:11</t>
-        </is>
+      <c r="H239" s="1" t="n">
+        <v>44153.90290509259</v>
       </c>
       <c r="I239" t="n">
         <v>0</v>
@@ -17853,10 +17393,8 @@
           <t>3721364151</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>2020-11-18 21:40:06</t>
-        </is>
+      <c r="H240" s="1" t="n">
+        <v>44153.90284722222</v>
       </c>
       <c r="I240" t="n">
         <v>0</v>
@@ -17925,10 +17463,8 @@
           <t>3721366061</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>2020-11-18 21:39:31</t>
-        </is>
+      <c r="H241" s="1" t="n">
+        <v>44153.90244212963</v>
       </c>
       <c r="I241" t="n">
         <v>0</v>
@@ -17993,10 +17529,8 @@
           <t>3721359138</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>2020-11-18 21:38:51</t>
-        </is>
+      <c r="H242" s="1" t="n">
+        <v>44153.90197916667</v>
       </c>
       <c r="I242" t="n">
         <v>34</v>
@@ -18064,10 +17598,8 @@
           <t>3721358238</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>2020-11-18 21:38:11</t>
-        </is>
+      <c r="H243" s="1" t="n">
+        <v>44153.9015162037</v>
       </c>
       <c r="I243" t="n">
         <v>0</v>
@@ -18135,10 +17667,8 @@
           <t>3721352647</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>2020-11-18 21:37:00</t>
-        </is>
+      <c r="H244" s="1" t="n">
+        <v>44153.90069444444</v>
       </c>
       <c r="I244" t="n">
         <v>1</v>
@@ -18212,10 +17742,8 @@
           <t>3721153122</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>2020-11-18 21:36:58</t>
-        </is>
+      <c r="H245" s="1" t="n">
+        <v>44153.90067129629</v>
       </c>
       <c r="I245" t="n">
         <v>4</v>
@@ -18287,10 +17815,8 @@
           <t>3721164095</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>2020-11-18 21:36:51</t>
-        </is>
+      <c r="H246" s="1" t="n">
+        <v>44153.90059027778</v>
       </c>
       <c r="I246" t="n">
         <v>0</v>
@@ -18358,10 +17884,8 @@
           <t>3721164095</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>2020-11-18 21:36:02</t>
-        </is>
+      <c r="H247" s="1" t="n">
+        <v>44153.90002314815</v>
       </c>
       <c r="I247" t="n">
         <v>0</v>
@@ -18429,10 +17953,8 @@
           <t>3721209392</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>2020-11-18 21:35:51</t>
-        </is>
+      <c r="H248" s="1" t="n">
+        <v>44153.89989583333</v>
       </c>
       <c r="I248" t="n">
         <v>8</v>
@@ -18500,10 +18022,8 @@
           <t>3721209392</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>2020-11-18 21:35:41</t>
-        </is>
+      <c r="H249" s="1" t="n">
+        <v>44153.89978009259</v>
       </c>
       <c r="I249" t="n">
         <v>1</v>
@@ -18567,10 +18087,8 @@
           <t>3721347664</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>2020-11-18 21:35:04</t>
-        </is>
+      <c r="H250" s="1" t="n">
+        <v>44153.89935185185</v>
       </c>
       <c r="I250" t="n">
         <v>0</v>
@@ -18639,10 +18157,8 @@
           <t>3721164095</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>2020-11-18 21:33:31</t>
-        </is>
+      <c r="H251" s="1" t="n">
+        <v>44153.89827546296</v>
       </c>
       <c r="I251" t="n">
         <v>1</v>
@@ -18706,10 +18222,8 @@
           <t>3721267930</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>2020-11-18 21:32:44</t>
-        </is>
+      <c r="H252" s="1" t="n">
+        <v>44153.89773148148</v>
       </c>
       <c r="I252" t="n">
         <v>0</v>
@@ -18786,10 +18300,8 @@
           <t>3721267930</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>2020-11-18 21:32:22</t>
-        </is>
+      <c r="H253" s="1" t="n">
+        <v>44153.89747685185</v>
       </c>
       <c r="I253" t="n">
         <v>0</v>
@@ -18865,10 +18377,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>2020-11-18 21:32:14</t>
-        </is>
+      <c r="H254" s="1" t="n">
+        <v>44153.89738425926</v>
       </c>
       <c r="I254" t="n">
         <v>0</v>
@@ -18940,10 +18450,8 @@
           <t>3721286978</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>2020-11-18 21:32:09</t>
-        </is>
+      <c r="H255" s="1" t="n">
+        <v>44153.89732638889</v>
       </c>
       <c r="I255" t="n">
         <v>1</v>
@@ -19019,10 +18527,8 @@
           <t>3721209392</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>2020-11-18 21:30:57</t>
-        </is>
+      <c r="H256" s="1" t="n">
+        <v>44153.89649305555</v>
       </c>
       <c r="I256" t="n">
         <v>13</v>
@@ -19090,10 +18596,8 @@
           <t>3721068375</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>2020-11-18 21:30:27</t>
-        </is>
+      <c r="H257" s="1" t="n">
+        <v>44153.89614583334</v>
       </c>
       <c r="I257" t="n">
         <v>8</v>
@@ -19165,10 +18669,8 @@
           <t>3721331538</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>2020-11-18 21:30:26</t>
-        </is>
+      <c r="H258" s="1" t="n">
+        <v>44153.89613425926</v>
       </c>
       <c r="I258" t="n">
         <v>0</v>
@@ -19228,10 +18730,8 @@
           <t>3721330998</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>2020-11-18 21:30:03</t>
-        </is>
+      <c r="H259" s="1" t="n">
+        <v>44153.89586805556</v>
       </c>
       <c r="I259" t="n">
         <v>1</v>
@@ -19303,10 +18803,8 @@
           <t>3721153122</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>2020-11-18 21:29:59</t>
-        </is>
+      <c r="H260" s="1" t="n">
+        <v>44153.89582175926</v>
       </c>
       <c r="I260" t="n">
         <v>0</v>
@@ -19382,10 +18880,8 @@
           <t>3721267930</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>2020-11-18 21:29:37</t>
-        </is>
+      <c r="H261" s="1" t="n">
+        <v>44153.89556712963</v>
       </c>
       <c r="I261" t="n">
         <v>0</v>
@@ -19463,10 +18959,8 @@
           <t>3721086534</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>2020-11-18 21:29:33</t>
-        </is>
+      <c r="H262" s="1" t="n">
+        <v>44153.89552083334</v>
       </c>
       <c r="I262" t="n">
         <v>0</v>
@@ -19544,10 +19038,8 @@
           <t>3721322374</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>2020-11-18 21:29:26</t>
-        </is>
+      <c r="H263" s="1" t="n">
+        <v>44153.89543981481</v>
       </c>
       <c r="I263" t="n">
         <v>0</v>
@@ -19611,10 +19103,8 @@
           <t>3721209392</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>2020-11-18 21:29:21</t>
-        </is>
+      <c r="H264" s="1" t="n">
+        <v>44153.89538194444</v>
       </c>
       <c r="I264" t="n">
         <v>4</v>
@@ -19682,10 +19172,8 @@
           <t>3721321929</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>2020-11-18 21:29:04</t>
-        </is>
+      <c r="H265" s="1" t="n">
+        <v>44153.89518518518</v>
       </c>
       <c r="I265" t="n">
         <v>1</v>
@@ -19761,10 +19249,8 @@
           <t>3721209392</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>2020-11-18 21:28:19</t>
-        </is>
+      <c r="H266" s="1" t="n">
+        <v>44153.89466435185</v>
       </c>
       <c r="I266" t="n">
         <v>3</v>
@@ -19840,10 +19326,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>2020-11-18 21:27:57</t>
-        </is>
+      <c r="H267" s="1" t="n">
+        <v>44153.89440972222</v>
       </c>
       <c r="I267" t="n">
         <v>0</v>
@@ -19919,10 +19403,8 @@
           <t>3721286978</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>2020-11-18 21:27:26</t>
-        </is>
+      <c r="H268" s="1" t="n">
+        <v>44153.89405092593</v>
       </c>
       <c r="I268" t="n">
         <v>1</v>
@@ -19998,10 +19480,8 @@
           <t>3721209392</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>2020-11-18 21:27:05</t>
-        </is>
+      <c r="H269" s="1" t="n">
+        <v>44153.89380787037</v>
       </c>
       <c r="I269" t="n">
         <v>12</v>
@@ -20069,10 +19549,8 @@
           <t>3721164095</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>2020-11-18 21:25:39</t>
-        </is>
+      <c r="H270" s="1" t="n">
+        <v>44153.8928125</v>
       </c>
       <c r="I270" t="n">
         <v>0</v>
@@ -20140,10 +19618,8 @@
           <t>3721209392</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>2020-11-18 21:25:32</t>
-        </is>
+      <c r="H271" s="1" t="n">
+        <v>44153.89273148148</v>
       </c>
       <c r="I271" t="n">
         <v>16</v>
@@ -20207,10 +19683,8 @@
           <t>3721164095</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>2020-11-18 21:24:48</t>
-        </is>
+      <c r="H272" s="1" t="n">
+        <v>44153.89222222222</v>
       </c>
       <c r="I272" t="n">
         <v>0</v>
@@ -20278,10 +19752,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>2020-11-18 21:24:37</t>
-        </is>
+      <c r="H273" s="1" t="n">
+        <v>44153.89209490741</v>
       </c>
       <c r="I273" t="n">
         <v>0</v>
@@ -20353,10 +19825,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>2020-11-18 21:24:25</t>
-        </is>
+      <c r="H274" s="1" t="n">
+        <v>44153.89195601852</v>
       </c>
       <c r="I274" t="n">
         <v>0</v>
@@ -20424,10 +19894,8 @@
           <t>3721310536</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>2020-11-18 21:24:14</t>
-        </is>
+      <c r="H275" s="1" t="n">
+        <v>44153.8918287037</v>
       </c>
       <c r="I275" t="n">
         <v>0</v>
@@ -20495,10 +19963,8 @@
           <t>3721267930</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>2020-11-18 21:23:08</t>
-        </is>
+      <c r="H276" s="1" t="n">
+        <v>44153.89106481482</v>
       </c>
       <c r="I276" t="n">
         <v>1</v>
@@ -20574,10 +20040,8 @@
           <t>3721062606</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>2020-11-18 21:22:51</t>
-        </is>
+      <c r="H277" s="1" t="n">
+        <v>44153.89086805555</v>
       </c>
       <c r="I277" t="n">
         <v>0</v>
@@ -20649,10 +20113,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>2020-11-18 21:22:46</t>
-        </is>
+      <c r="H278" s="1" t="n">
+        <v>44153.89081018518</v>
       </c>
       <c r="I278" t="n">
         <v>0</v>
@@ -20724,10 +20186,8 @@
           <t>3721164095</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>2020-11-18 21:22:14</t>
-        </is>
+      <c r="H279" s="1" t="n">
+        <v>44153.89043981482</v>
       </c>
       <c r="I279" t="n">
         <v>6</v>
@@ -20795,10 +20255,8 @@
           <t>3721209392</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>2020-11-18 21:22:03</t>
-        </is>
+      <c r="H280" s="1" t="n">
+        <v>44153.8903125</v>
       </c>
       <c r="I280" t="n">
         <v>1</v>
@@ -20870,10 +20328,8 @@
           <t>3721209392</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>2020-11-18 21:21:51</t>
-        </is>
+      <c r="H281" s="1" t="n">
+        <v>44153.89017361111</v>
       </c>
       <c r="I281" t="n">
         <v>0</v>
@@ -20945,10 +20401,8 @@
           <t>3721297331</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>2020-11-18 21:21:40</t>
-        </is>
+      <c r="H282" s="1" t="n">
+        <v>44153.8900462963</v>
       </c>
       <c r="I282" t="n">
         <v>2</v>
@@ -21020,10 +20474,8 @@
           <t>3721164095</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>2020-11-18 21:21:30</t>
-        </is>
+      <c r="H283" s="1" t="n">
+        <v>44153.88993055555</v>
       </c>
       <c r="I283" t="n">
         <v>0</v>
@@ -21091,10 +20543,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>2020-11-18 21:21:19</t>
-        </is>
+      <c r="H284" s="1" t="n">
+        <v>44153.88980324074</v>
       </c>
       <c r="I284" t="n">
         <v>1</v>
@@ -21162,10 +20612,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>2020-11-18 21:20:43</t>
-        </is>
+      <c r="H285" s="1" t="n">
+        <v>44153.88938657408</v>
       </c>
       <c r="I285" t="n">
         <v>0</v>
@@ -21238,10 +20686,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>2020-11-18 21:19:52</t>
-        </is>
+      <c r="H286" s="1" t="n">
+        <v>44153.8887962963</v>
       </c>
       <c r="I286" t="n">
         <v>0</v>
@@ -21317,10 +20763,8 @@
           <t>3721278976</t>
         </is>
       </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>2020-11-18 21:18:52</t>
-        </is>
+      <c r="H287" s="1" t="n">
+        <v>44153.88810185185</v>
       </c>
       <c r="I287" t="n">
         <v>6</v>
@@ -21392,10 +20836,8 @@
           <t>3721286978</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>2020-11-18 21:18:50</t>
-        </is>
+      <c r="H288" s="1" t="n">
+        <v>44153.88807870371</v>
       </c>
       <c r="I288" t="n">
         <v>0</v>
@@ -21467,10 +20909,8 @@
           <t>3721209392</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>2020-11-18 21:18:25</t>
-        </is>
+      <c r="H289" s="1" t="n">
+        <v>44153.88778935185</v>
       </c>
       <c r="I289" t="n">
         <v>3</v>
@@ -21538,10 +20978,8 @@
           <t>3721276816</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>2020-11-18 21:17:08</t>
-        </is>
+      <c r="H290" s="1" t="n">
+        <v>44153.88689814815</v>
       </c>
       <c r="I290" t="n">
         <v>2</v>
@@ -21613,10 +21051,8 @@
           <t>3721267930</t>
         </is>
       </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>2020-11-18 21:16:46</t>
-        </is>
+      <c r="H291" s="1" t="n">
+        <v>44153.88664351852</v>
       </c>
       <c r="I291" t="n">
         <v>2</v>
@@ -21693,10 +21129,8 @@
           <t>3721272814</t>
         </is>
       </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>2020-11-18 21:15:31</t>
-        </is>
+      <c r="H292" s="1" t="n">
+        <v>44153.88577546296</v>
       </c>
       <c r="I292" t="n">
         <v>0</v>
@@ -21764,10 +21198,8 @@
           <t>3721267930</t>
         </is>
       </c>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>2020-11-18 21:14:23</t>
-        </is>
+      <c r="H293" s="1" t="n">
+        <v>44153.88498842593</v>
       </c>
       <c r="I293" t="n">
         <v>1</v>
@@ -21831,10 +21263,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H294" t="inlineStr">
-        <is>
-          <t>2020-11-18 21:14:07</t>
-        </is>
+      <c r="H294" s="1" t="n">
+        <v>44153.88480324074</v>
       </c>
       <c r="I294" t="n">
         <v>0</v>
@@ -21901,10 +21331,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H295" t="inlineStr">
-        <is>
-          <t>2020-11-18 21:14:02</t>
-        </is>
+      <c r="H295" s="1" t="n">
+        <v>44153.88474537037</v>
       </c>
       <c r="I295" t="n">
         <v>0</v>
@@ -21968,10 +21396,8 @@
           <t>3721258386</t>
         </is>
       </c>
-      <c r="H296" t="inlineStr">
-        <is>
-          <t>2020-11-18 21:11:56</t>
-        </is>
+      <c r="H296" s="1" t="n">
+        <v>44153.88328703704</v>
       </c>
       <c r="I296" t="n">
         <v>3</v>
@@ -22047,10 +21473,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H297" t="inlineStr">
-        <is>
-          <t>2020-11-18 21:11:12</t>
-        </is>
+      <c r="H297" s="1" t="n">
+        <v>44153.88277777778</v>
       </c>
       <c r="I297" t="n">
         <v>0</v>
@@ -22110,10 +21534,8 @@
           <t>3721249050</t>
         </is>
       </c>
-      <c r="H298" t="inlineStr">
-        <is>
-          <t>2020-11-18 21:10:53</t>
-        </is>
+      <c r="H298" s="1" t="n">
+        <v>44153.88255787037</v>
       </c>
       <c r="I298" t="n">
         <v>1</v>
@@ -22189,10 +21611,8 @@
           <t>3721257007</t>
         </is>
       </c>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>2020-11-18 21:10:47</t>
-        </is>
+      <c r="H299" s="1" t="n">
+        <v>44153.88248842592</v>
       </c>
       <c r="I299" t="n">
         <v>0</v>
@@ -22264,10 +21684,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H300" t="inlineStr">
-        <is>
-          <t>2020-11-18 21:10:40</t>
-        </is>
+      <c r="H300" s="1" t="n">
+        <v>44153.88240740741</v>
       </c>
       <c r="I300" t="n">
         <v>0</v>
@@ -22343,10 +21761,8 @@
           <t>3721164095</t>
         </is>
       </c>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>2020-11-18 21:07:58</t>
-        </is>
+      <c r="H301" s="1" t="n">
+        <v>44153.88053240741</v>
       </c>
       <c r="I301" t="n">
         <v>1</v>
@@ -22418,10 +21834,8 @@
           <t>3721233458</t>
         </is>
       </c>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>2020-11-18 21:06:23</t>
-        </is>
+      <c r="H302" s="1" t="n">
+        <v>44153.87943287037</v>
       </c>
       <c r="I302" t="n">
         <v>0</v>
@@ -22489,10 +21903,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>2020-11-18 21:05:53</t>
-        </is>
+      <c r="H303" s="1" t="n">
+        <v>44153.87908564815</v>
       </c>
       <c r="I303" t="n">
         <v>0</v>
@@ -22512,9 +21924,10 @@
           <t>保密</t>
         </is>
       </c>
-      <c r="M303">
-        <f>w=</f>
-        <v/>
+      <c r="M303" t="inlineStr">
+        <is>
+          <t>=w=</t>
+        </is>
       </c>
       <c r="N303" t="n">
         <v>5</v>
@@ -22567,10 +21980,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>2020-11-18 21:05:35</t>
-        </is>
+      <c r="H304" s="1" t="n">
+        <v>44153.87887731481</v>
       </c>
       <c r="I304" t="n">
         <v>0</v>
@@ -22646,10 +22057,8 @@
           <t>3721229342</t>
         </is>
       </c>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>2020-11-18 21:04:34</t>
-        </is>
+      <c r="H305" s="1" t="n">
+        <v>44153.8781712963</v>
       </c>
       <c r="I305" t="n">
         <v>10</v>
@@ -22725,10 +22134,8 @@
           <t>3721153122</t>
         </is>
       </c>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>2020-11-18 21:04:30</t>
-        </is>
+      <c r="H306" s="1" t="n">
+        <v>44153.878125</v>
       </c>
       <c r="I306" t="n">
         <v>0</v>
@@ -22802,10 +22209,8 @@
           <t>3721164095</t>
         </is>
       </c>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>2020-11-18 21:03:24</t>
-        </is>
+      <c r="H307" s="1" t="n">
+        <v>44153.87736111111</v>
       </c>
       <c r="I307" t="n">
         <v>1</v>
@@ -22873,10 +22278,8 @@
           <t>3721209392</t>
         </is>
       </c>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>2020-11-18 21:03:22</t>
-        </is>
+      <c r="H308" s="1" t="n">
+        <v>44153.87733796296</v>
       </c>
       <c r="I308" t="n">
         <v>25</v>
@@ -22952,10 +22355,8 @@
           <t>3721227733</t>
         </is>
       </c>
-      <c r="H309" t="inlineStr">
-        <is>
-          <t>2020-11-18 21:03:14</t>
-        </is>
+      <c r="H309" s="1" t="n">
+        <v>44153.87724537037</v>
       </c>
       <c r="I309" t="n">
         <v>5</v>
@@ -23019,10 +22420,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>2020-11-18 21:03:12</t>
-        </is>
+      <c r="H310" s="1" t="n">
+        <v>44153.87722222223</v>
       </c>
       <c r="I310" t="n">
         <v>3</v>
@@ -23086,10 +22485,8 @@
           <t>3721222262</t>
         </is>
       </c>
-      <c r="H311" t="inlineStr">
-        <is>
-          <t>2020-11-18 21:01:58</t>
-        </is>
+      <c r="H311" s="1" t="n">
+        <v>44153.87636574074</v>
       </c>
       <c r="I311" t="n">
         <v>0</v>
@@ -23153,10 +22550,8 @@
           <t>3721214801</t>
         </is>
       </c>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>2020-11-18 21:00:52</t>
-        </is>
+      <c r="H312" s="1" t="n">
+        <v>44153.87560185185</v>
       </c>
       <c r="I312" t="n">
         <v>1</v>
@@ -23220,10 +22615,8 @@
           <t>3721164095</t>
         </is>
       </c>
-      <c r="H313" t="inlineStr">
-        <is>
-          <t>2020-11-18 21:00:47</t>
-        </is>
+      <c r="H313" s="1" t="n">
+        <v>44153.87554398148</v>
       </c>
       <c r="I313" t="n">
         <v>1</v>
@@ -23295,10 +22688,8 @@
           <t>3721215401</t>
         </is>
       </c>
-      <c r="H314" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:59:54</t>
-        </is>
+      <c r="H314" s="1" t="n">
+        <v>44153.87493055555</v>
       </c>
       <c r="I314" t="n">
         <v>4</v>
@@ -23374,10 +22765,8 @@
           <t>3721164095</t>
         </is>
       </c>
-      <c r="H315" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:59:38</t>
-        </is>
+      <c r="H315" s="1" t="n">
+        <v>44153.87474537037</v>
       </c>
       <c r="I315" t="n">
         <v>0</v>
@@ -23445,10 +22834,8 @@
           <t>3721063531</t>
         </is>
       </c>
-      <c r="H316" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:59:36</t>
-        </is>
+      <c r="H316" s="1" t="n">
+        <v>44153.87472222222</v>
       </c>
       <c r="I316" t="n">
         <v>5</v>
@@ -23524,10 +22911,8 @@
           <t>3721212052</t>
         </is>
       </c>
-      <c r="H317" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:58:43</t>
-        </is>
+      <c r="H317" s="1" t="n">
+        <v>44153.8741087963</v>
       </c>
       <c r="I317" t="n">
         <v>0</v>
@@ -23595,10 +22980,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H318" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:58:23</t>
-        </is>
+      <c r="H318" s="1" t="n">
+        <v>44153.87387731481</v>
       </c>
       <c r="I318" t="n">
         <v>0</v>
@@ -23674,10 +23057,8 @@
           <t>3721149316</t>
         </is>
       </c>
-      <c r="H319" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:58:22</t>
-        </is>
+      <c r="H319" s="1" t="n">
+        <v>44153.87386574074</v>
       </c>
       <c r="I319" t="n">
         <v>8</v>
@@ -23745,10 +23126,8 @@
           <t>3721164095</t>
         </is>
       </c>
-      <c r="H320" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:58:05</t>
-        </is>
+      <c r="H320" s="1" t="n">
+        <v>44153.87366898148</v>
       </c>
       <c r="I320" t="n">
         <v>17</v>
@@ -23820,10 +23199,8 @@
           <t>3721199930</t>
         </is>
       </c>
-      <c r="H321" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:56:58</t>
-        </is>
+      <c r="H321" s="1" t="n">
+        <v>44153.87289351852</v>
       </c>
       <c r="I321" t="n">
         <v>1</v>
@@ -23895,10 +23272,8 @@
           <t>3721193634</t>
         </is>
       </c>
-      <c r="H322" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:55:15</t>
-        </is>
+      <c r="H322" s="1" t="n">
+        <v>44153.87170138889</v>
       </c>
       <c r="I322" t="n">
         <v>3</v>
@@ -23974,10 +23349,8 @@
           <t>3721197480</t>
         </is>
       </c>
-      <c r="H323" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:55:02</t>
-        </is>
+      <c r="H323" s="1" t="n">
+        <v>44153.87155092593</v>
       </c>
       <c r="I323" t="n">
         <v>1</v>
@@ -24045,10 +23418,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H324" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:54:49</t>
-        </is>
+      <c r="H324" s="1" t="n">
+        <v>44153.87140046297</v>
       </c>
       <c r="I324" t="n">
         <v>0</v>
@@ -24120,10 +23491,8 @@
           <t>3721068050</t>
         </is>
       </c>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:53:33</t>
-        </is>
+      <c r="H325" s="1" t="n">
+        <v>44153.87052083333</v>
       </c>
       <c r="I325" t="n">
         <v>1</v>
@@ -24191,10 +23560,8 @@
           <t>3721082203</t>
         </is>
       </c>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:53:31</t>
-        </is>
+      <c r="H326" s="1" t="n">
+        <v>44153.87049768519</v>
       </c>
       <c r="I326" t="n">
         <v>0</v>
@@ -24266,10 +23633,8 @@
           <t>3721083613</t>
         </is>
       </c>
-      <c r="H327" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:53:03</t>
-        </is>
+      <c r="H327" s="1" t="n">
+        <v>44153.87017361111</v>
       </c>
       <c r="I327" t="n">
         <v>0</v>
@@ -24341,10 +23706,8 @@
           <t>3721164095</t>
         </is>
       </c>
-      <c r="H328" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:52:56</t>
-        </is>
+      <c r="H328" s="1" t="n">
+        <v>44153.8700925926</v>
       </c>
       <c r="I328" t="n">
         <v>5</v>
@@ -24412,10 +23775,8 @@
           <t>3721184905</t>
         </is>
       </c>
-      <c r="H329" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:52:56</t>
-        </is>
+      <c r="H329" s="1" t="n">
+        <v>44153.8700925926</v>
       </c>
       <c r="I329" t="n">
         <v>0</v>
@@ -24483,10 +23844,8 @@
           <t>3721184877</t>
         </is>
       </c>
-      <c r="H330" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:52:55</t>
-        </is>
+      <c r="H330" s="1" t="n">
+        <v>44153.87008101852</v>
       </c>
       <c r="I330" t="n">
         <v>1</v>
@@ -24554,10 +23913,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:52:34</t>
-        </is>
+      <c r="H331" s="1" t="n">
+        <v>44153.86983796296</v>
       </c>
       <c r="I331" t="n">
         <v>0</v>
@@ -24621,10 +23978,8 @@
           <t>3721063531</t>
         </is>
       </c>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:52:23</t>
-        </is>
+      <c r="H332" s="1" t="n">
+        <v>44153.86971064815</v>
       </c>
       <c r="I332" t="n">
         <v>2</v>
@@ -24696,10 +24051,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:51:39</t>
-        </is>
+      <c r="H333" s="1" t="n">
+        <v>44153.86920138889</v>
       </c>
       <c r="I333" t="n">
         <v>15</v>
@@ -24767,10 +24120,8 @@
           <t>3721164095</t>
         </is>
       </c>
-      <c r="H334" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:50:52</t>
-        </is>
+      <c r="H334" s="1" t="n">
+        <v>44153.86865740741</v>
       </c>
       <c r="I334" t="n">
         <v>35</v>
@@ -24846,10 +24197,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H335" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:50:47</t>
-        </is>
+      <c r="H335" s="1" t="n">
+        <v>44153.86859953704</v>
       </c>
       <c r="I335" t="n">
         <v>0</v>
@@ -24925,10 +24274,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H336" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:50:11</t>
-        </is>
+      <c r="H336" s="1" t="n">
+        <v>44153.86818287037</v>
       </c>
       <c r="I336" t="n">
         <v>1</v>
@@ -24992,10 +24339,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H337" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:49:54</t>
-        </is>
+      <c r="H337" s="1" t="n">
+        <v>44153.86798611111</v>
       </c>
       <c r="I337" t="n">
         <v>0</v>
@@ -25059,10 +24404,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H338" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:49:47</t>
-        </is>
+      <c r="H338" s="1" t="n">
+        <v>44153.86790509259</v>
       </c>
       <c r="I338" t="n">
         <v>0</v>
@@ -25138,10 +24481,8 @@
           <t>3721067181</t>
         </is>
       </c>
-      <c r="H339" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:49:15</t>
-        </is>
+      <c r="H339" s="1" t="n">
+        <v>44153.86753472222</v>
       </c>
       <c r="I339" t="n">
         <v>0</v>
@@ -25205,10 +24546,8 @@
           <t>3721171152</t>
         </is>
       </c>
-      <c r="H340" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:48:21</t>
-        </is>
+      <c r="H340" s="1" t="n">
+        <v>44153.86690972222</v>
       </c>
       <c r="I340" t="n">
         <v>0</v>
@@ -25276,10 +24615,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:48:17</t>
-        </is>
+      <c r="H341" s="1" t="n">
+        <v>44153.86686342592</v>
       </c>
       <c r="I341" t="n">
         <v>0</v>
@@ -25355,10 +24692,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:48:07</t>
-        </is>
+      <c r="H342" s="1" t="n">
+        <v>44153.86674768518</v>
       </c>
       <c r="I342" t="n">
         <v>0</v>
@@ -25434,10 +24769,8 @@
           <t>3721164095</t>
         </is>
       </c>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:47:50</t>
-        </is>
+      <c r="H343" s="1" t="n">
+        <v>44153.86655092592</v>
       </c>
       <c r="I343" t="n">
         <v>19</v>
@@ -25505,10 +24838,8 @@
           <t>3721164104</t>
         </is>
       </c>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:47:50</t>
-        </is>
+      <c r="H344" s="1" t="n">
+        <v>44153.86655092592</v>
       </c>
       <c r="I344" t="n">
         <v>1</v>
@@ -25572,10 +24903,8 @@
           <t>3721159729</t>
         </is>
       </c>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:47:11</t>
-        </is>
+      <c r="H345" s="1" t="n">
+        <v>44153.86609953704</v>
       </c>
       <c r="I345" t="n">
         <v>3</v>
@@ -25651,10 +24980,8 @@
           <t>3721167679</t>
         </is>
       </c>
-      <c r="H346" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:47:11</t>
-        </is>
+      <c r="H346" s="1" t="n">
+        <v>44153.86609953704</v>
       </c>
       <c r="I346" t="n">
         <v>0</v>
@@ -25730,10 +25057,8 @@
           <t>3721158975</t>
         </is>
       </c>
-      <c r="H347" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:46:34</t>
-        </is>
+      <c r="H347" s="1" t="n">
+        <v>44153.8656712963</v>
       </c>
       <c r="I347" t="n">
         <v>10</v>
@@ -25797,10 +25122,8 @@
           <t>3721154693</t>
         </is>
       </c>
-      <c r="H348" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:44:39</t>
-        </is>
+      <c r="H348" s="1" t="n">
+        <v>44153.86434027777</v>
       </c>
       <c r="I348" t="n">
         <v>4</v>
@@ -25876,10 +25199,8 @@
           <t>3721149316</t>
         </is>
       </c>
-      <c r="H349" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:44:03</t>
-        </is>
+      <c r="H349" s="1" t="n">
+        <v>44153.86392361111</v>
       </c>
       <c r="I349" t="n">
         <v>110</v>
@@ -25952,10 +25273,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H350" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:44:02</t>
-        </is>
+      <c r="H350" s="1" t="n">
+        <v>44153.86391203704</v>
       </c>
       <c r="I350" t="n">
         <v>0</v>
@@ -26027,10 +25346,8 @@
           <t>3721153122</t>
         </is>
       </c>
-      <c r="H351" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:43:25</t>
-        </is>
+      <c r="H351" s="1" t="n">
+        <v>44153.8634837963</v>
       </c>
       <c r="I351" t="n">
         <v>6</v>
@@ -26098,10 +25415,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H352" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:43:23</t>
-        </is>
+      <c r="H352" s="1" t="n">
+        <v>44153.86346064815</v>
       </c>
       <c r="I352" t="n">
         <v>0</v>
@@ -26165,10 +25480,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H353" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:42:50</t>
-        </is>
+      <c r="H353" s="1" t="n">
+        <v>44153.8630787037</v>
       </c>
       <c r="I353" t="n">
         <v>0</v>
@@ -26237,10 +25550,8 @@
           <t>3721146273</t>
         </is>
       </c>
-      <c r="H354" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:41:31</t>
-        </is>
+      <c r="H354" s="1" t="n">
+        <v>44153.86216435185</v>
       </c>
       <c r="I354" t="n">
         <v>3</v>
@@ -26309,10 +25620,8 @@
           <t>3721142853</t>
         </is>
       </c>
-      <c r="H355" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:41:19</t>
-        </is>
+      <c r="H355" s="1" t="n">
+        <v>44153.86202546296</v>
       </c>
       <c r="I355" t="n">
         <v>58</v>
@@ -26384,10 +25693,8 @@
           <t>3721150558</t>
         </is>
       </c>
-      <c r="H356" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:41:13</t>
-        </is>
+      <c r="H356" s="1" t="n">
+        <v>44153.86195601852</v>
       </c>
       <c r="I356" t="n">
         <v>50</v>
@@ -26455,10 +25762,8 @@
           <t>3721142615</t>
         </is>
       </c>
-      <c r="H357" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:41:07</t>
-        </is>
+      <c r="H357" s="1" t="n">
+        <v>44153.86188657407</v>
       </c>
       <c r="I357" t="n">
         <v>1</v>
@@ -26526,10 +25831,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H358" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:40:40</t>
-        </is>
+      <c r="H358" s="1" t="n">
+        <v>44153.86157407407</v>
       </c>
       <c r="I358" t="n">
         <v>0</v>
@@ -26597,10 +25900,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H359" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:40:39</t>
-        </is>
+      <c r="H359" s="1" t="n">
+        <v>44153.8615625</v>
       </c>
       <c r="I359" t="n">
         <v>0</v>
@@ -26676,10 +25977,8 @@
           <t>3721134006</t>
         </is>
       </c>
-      <c r="H360" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:39:39</t>
-        </is>
+      <c r="H360" s="1" t="n">
+        <v>44153.86086805556</v>
       </c>
       <c r="I360" t="n">
         <v>2</v>
@@ -26743,10 +26042,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H361" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:39:24</t>
-        </is>
+      <c r="H361" s="1" t="n">
+        <v>44153.86069444445</v>
       </c>
       <c r="I361" t="n">
         <v>1</v>
@@ -26822,10 +26119,8 @@
           <t>3721138222</t>
         </is>
       </c>
-      <c r="H362" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:39:17</t>
-        </is>
+      <c r="H362" s="1" t="n">
+        <v>44153.86061342592</v>
       </c>
       <c r="I362" t="n">
         <v>3</v>
@@ -26901,10 +26196,8 @@
           <t>3721132664</t>
         </is>
       </c>
-      <c r="H363" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:38:35</t>
-        </is>
+      <c r="H363" s="1" t="n">
+        <v>44153.86012731482</v>
       </c>
       <c r="I363" t="n">
         <v>0</v>
@@ -26968,10 +26261,8 @@
           <t>3721128763</t>
         </is>
       </c>
-      <c r="H364" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:37:50</t>
-        </is>
+      <c r="H364" s="1" t="n">
+        <v>44153.85960648148</v>
       </c>
       <c r="I364" t="n">
         <v>116</v>
@@ -27039,10 +26330,8 @@
           <t>3721136460</t>
         </is>
       </c>
-      <c r="H365" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:37:47</t>
-        </is>
+      <c r="H365" s="1" t="n">
+        <v>44153.85957175926</v>
       </c>
       <c r="I365" t="n">
         <v>1</v>
@@ -27110,10 +26399,8 @@
           <t>3721081196</t>
         </is>
       </c>
-      <c r="H366" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:37:46</t>
-        </is>
+      <c r="H366" s="1" t="n">
+        <v>44153.85956018518</v>
       </c>
       <c r="I366" t="n">
         <v>0</v>
@@ -27181,10 +26468,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H367" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:37:10</t>
-        </is>
+      <c r="H367" s="1" t="n">
+        <v>44153.85914351852</v>
       </c>
       <c r="I367" t="n">
         <v>0</v>
@@ -27252,10 +26537,8 @@
           <t>3721135524</t>
         </is>
       </c>
-      <c r="H368" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:36:57</t>
-        </is>
+      <c r="H368" s="1" t="n">
+        <v>44153.85899305555</v>
       </c>
       <c r="I368" t="n">
         <v>1</v>
@@ -27327,10 +26610,8 @@
           <t>3721119758</t>
         </is>
       </c>
-      <c r="H369" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:36:12</t>
-        </is>
+      <c r="H369" s="1" t="n">
+        <v>44153.85847222222</v>
       </c>
       <c r="I369" t="n">
         <v>69</v>
@@ -27398,10 +26679,8 @@
           <t>3721124288</t>
         </is>
       </c>
-      <c r="H370" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:35:54</t>
-        </is>
+      <c r="H370" s="1" t="n">
+        <v>44153.85826388889</v>
       </c>
       <c r="I370" t="n">
         <v>0</v>
@@ -27473,10 +26752,8 @@
           <t>3721121157</t>
         </is>
       </c>
-      <c r="H371" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:35:41</t>
-        </is>
+      <c r="H371" s="1" t="n">
+        <v>44153.85811342593</v>
       </c>
       <c r="I371" t="n">
         <v>0</v>
@@ -27548,10 +26825,8 @@
           <t>3721122879</t>
         </is>
       </c>
-      <c r="H372" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:34:44</t>
-        </is>
+      <c r="H372" s="1" t="n">
+        <v>44153.85745370371</v>
       </c>
       <c r="I372" t="n">
         <v>3</v>
@@ -27615,10 +26890,8 @@
           <t>3721117669</t>
         </is>
       </c>
-      <c r="H373" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:34:30</t>
-        </is>
+      <c r="H373" s="1" t="n">
+        <v>44153.85729166667</v>
       </c>
       <c r="I373" t="n">
         <v>5</v>
@@ -27686,10 +26959,8 @@
           <t>3721114457</t>
         </is>
       </c>
-      <c r="H374" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:34:11</t>
-        </is>
+      <c r="H374" s="1" t="n">
+        <v>44153.85707175926</v>
       </c>
       <c r="I374" t="n">
         <v>6</v>
@@ -27761,10 +27032,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H375" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:34:06</t>
-        </is>
+      <c r="H375" s="1" t="n">
+        <v>44153.85701388889</v>
       </c>
       <c r="I375" t="n">
         <v>0</v>
@@ -27841,10 +27110,8 @@
           <t>3721121157</t>
         </is>
       </c>
-      <c r="H376" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:33:17</t>
-        </is>
+      <c r="H376" s="1" t="n">
+        <v>44153.85644675926</v>
       </c>
       <c r="I376" t="n">
         <v>0</v>
@@ -27912,10 +27179,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H377" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:33:08</t>
-        </is>
+      <c r="H377" s="1" t="n">
+        <v>44153.85634259259</v>
       </c>
       <c r="I377" t="n">
         <v>0</v>
@@ -27991,10 +27256,8 @@
           <t>3721081196</t>
         </is>
       </c>
-      <c r="H378" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:32:30</t>
-        </is>
+      <c r="H378" s="1" t="n">
+        <v>44153.85590277778</v>
       </c>
       <c r="I378" t="n">
         <v>0</v>
@@ -28070,10 +27333,8 @@
           <t>3721112450</t>
         </is>
       </c>
-      <c r="H379" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:32:29</t>
-        </is>
+      <c r="H379" s="1" t="n">
+        <v>44153.8558912037</v>
       </c>
       <c r="I379" t="n">
         <v>1</v>
@@ -28137,10 +27398,8 @@
           <t>3721109702</t>
         </is>
       </c>
-      <c r="H380" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:32:02</t>
-        </is>
+      <c r="H380" s="1" t="n">
+        <v>44153.8555787037</v>
       </c>
       <c r="I380" t="n">
         <v>34</v>
@@ -28212,10 +27471,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H381" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:31:19</t>
-        </is>
+      <c r="H381" s="1" t="n">
+        <v>44153.85508101852</v>
       </c>
       <c r="I381" t="n">
         <v>0</v>
@@ -28287,10 +27544,8 @@
           <t>3721110695</t>
         </is>
       </c>
-      <c r="H382" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:31:01</t>
-        </is>
+      <c r="H382" s="1" t="n">
+        <v>44153.85487268519</v>
       </c>
       <c r="I382" t="n">
         <v>13</v>
@@ -28354,10 +27609,8 @@
           <t>3721107905</t>
         </is>
       </c>
-      <c r="H383" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:30:36</t>
-        </is>
+      <c r="H383" s="1" t="n">
+        <v>44153.85458333333</v>
       </c>
       <c r="I383" t="n">
         <v>7</v>
@@ -28425,10 +27678,8 @@
           <t>3721099980</t>
         </is>
       </c>
-      <c r="H384" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:30:23</t>
-        </is>
+      <c r="H384" s="1" t="n">
+        <v>44153.85443287037</v>
       </c>
       <c r="I384" t="n">
         <v>0</v>
@@ -28496,10 +27747,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H385" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:29:49</t>
-        </is>
+      <c r="H385" s="1" t="n">
+        <v>44153.85403935185</v>
       </c>
       <c r="I385" t="n">
         <v>0</v>
@@ -28571,10 +27820,8 @@
           <t>3721099224</t>
         </is>
       </c>
-      <c r="H386" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:29:41</t>
-        </is>
+      <c r="H386" s="1" t="n">
+        <v>44153.85394675926</v>
       </c>
       <c r="I386" t="n">
         <v>11</v>
@@ -28650,10 +27897,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H387" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:29:36</t>
-        </is>
+      <c r="H387" s="1" t="n">
+        <v>44153.85388888889</v>
       </c>
       <c r="I387" t="n">
         <v>0</v>
@@ -28721,10 +27966,8 @@
           <t>3721106416</t>
         </is>
       </c>
-      <c r="H388" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:29:21</t>
-        </is>
+      <c r="H388" s="1" t="n">
+        <v>44153.85371527778</v>
       </c>
       <c r="I388" t="n">
         <v>76</v>
@@ -28796,10 +28039,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H389" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:29:11</t>
-        </is>
+      <c r="H389" s="1" t="n">
+        <v>44153.85359953704</v>
       </c>
       <c r="I389" t="n">
         <v>0</v>
@@ -28863,10 +28104,8 @@
           <t>3721100054</t>
         </is>
       </c>
-      <c r="H390" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:28:08</t>
-        </is>
+      <c r="H390" s="1" t="n">
+        <v>44153.85287037037</v>
       </c>
       <c r="I390" t="n">
         <v>5</v>
@@ -28943,10 +28182,8 @@
           <t>3721094629</t>
         </is>
       </c>
-      <c r="H391" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:27:54</t>
-        </is>
+      <c r="H391" s="1" t="n">
+        <v>44153.85270833333</v>
       </c>
       <c r="I391" t="n">
         <v>43</v>
@@ -29018,10 +28255,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H392" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:26:40</t>
-        </is>
+      <c r="H392" s="1" t="n">
+        <v>44153.85185185185</v>
       </c>
       <c r="I392" t="n">
         <v>0</v>
@@ -29097,10 +28332,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H393" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:26:38</t>
-        </is>
+      <c r="H393" s="1" t="n">
+        <v>44153.8518287037</v>
       </c>
       <c r="I393" t="n">
         <v>0</v>
@@ -29172,10 +28405,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H394" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:26:22</t>
-        </is>
+      <c r="H394" s="1" t="n">
+        <v>44153.85164351852</v>
       </c>
       <c r="I394" t="n">
         <v>0</v>
@@ -29243,10 +28474,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H395" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:25:59</t>
-        </is>
+      <c r="H395" s="1" t="n">
+        <v>44153.85137731482</v>
       </c>
       <c r="I395" t="n">
         <v>0</v>
@@ -29322,10 +28551,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H396" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:25:51</t>
-        </is>
+      <c r="H396" s="1" t="n">
+        <v>44153.85128472222</v>
       </c>
       <c r="I396" t="n">
         <v>1</v>
@@ -29397,10 +28624,8 @@
           <t>3721084323</t>
         </is>
       </c>
-      <c r="H397" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:25:29</t>
-        </is>
+      <c r="H397" s="1" t="n">
+        <v>44153.85103009259</v>
       </c>
       <c r="I397" t="n">
         <v>17</v>
@@ -29476,10 +28701,8 @@
           <t>3721086534</t>
         </is>
       </c>
-      <c r="H398" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:25:11</t>
-        </is>
+      <c r="H398" s="1" t="n">
+        <v>44153.85082175926</v>
       </c>
       <c r="I398" t="n">
         <v>1</v>
@@ -29551,10 +28774,8 @@
           <t>3721083613</t>
         </is>
       </c>
-      <c r="H399" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:24:55</t>
-        </is>
+      <c r="H399" s="1" t="n">
+        <v>44153.85063657408</v>
       </c>
       <c r="I399" t="n">
         <v>14</v>
@@ -29626,10 +28847,8 @@
           <t>3721083473</t>
         </is>
       </c>
-      <c r="H400" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:24:47</t>
-        </is>
+      <c r="H400" s="1" t="n">
+        <v>44153.85054398148</v>
       </c>
       <c r="I400" t="n">
         <v>93</v>
@@ -29693,10 +28912,8 @@
           <t>3721068375</t>
         </is>
       </c>
-      <c r="H401" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:24:34</t>
-        </is>
+      <c r="H401" s="1" t="n">
+        <v>44153.85039351852</v>
       </c>
       <c r="I401" t="n">
         <v>1</v>
@@ -29772,10 +28989,8 @@
           <t>3721083180</t>
         </is>
       </c>
-      <c r="H402" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:24:31</t>
-        </is>
+      <c r="H402" s="1" t="n">
+        <v>44153.8503587963</v>
       </c>
       <c r="I402" t="n">
         <v>2</v>
@@ -29847,10 +29062,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H403" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:24:00</t>
-        </is>
+      <c r="H403" s="1" t="n">
+        <v>44153.85</v>
       </c>
       <c r="I403" t="n">
         <v>1</v>
@@ -29914,10 +29127,8 @@
           <t>3721082203</t>
         </is>
       </c>
-      <c r="H404" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:23:40</t>
-        </is>
+      <c r="H404" s="1" t="n">
+        <v>44153.84976851852</v>
       </c>
       <c r="I404" t="n">
         <v>1</v>
@@ -29985,10 +29196,8 @@
           <t>3721079378</t>
         </is>
       </c>
-      <c r="H405" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:23:38</t>
-        </is>
+      <c r="H405" s="1" t="n">
+        <v>44153.84974537037</v>
       </c>
       <c r="I405" t="n">
         <v>14</v>
@@ -30060,10 +29269,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H406" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:23:36</t>
-        </is>
+      <c r="H406" s="1" t="n">
+        <v>44153.84972222222</v>
       </c>
       <c r="I406" t="n">
         <v>0</v>
@@ -30131,10 +29338,8 @@
           <t>3721079287</t>
         </is>
       </c>
-      <c r="H407" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:23:34</t>
-        </is>
+      <c r="H407" s="1" t="n">
+        <v>44153.84969907408</v>
       </c>
       <c r="I407" t="n">
         <v>1</v>
@@ -30198,10 +29403,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H408" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:23:32</t>
-        </is>
+      <c r="H408" s="1" t="n">
+        <v>44153.84967592593</v>
       </c>
       <c r="I408" t="n">
         <v>0</v>
@@ -30269,10 +29472,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H409" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:23:26</t>
-        </is>
+      <c r="H409" s="1" t="n">
+        <v>44153.84960648148</v>
       </c>
       <c r="I409" t="n">
         <v>0</v>
@@ -30340,10 +29541,8 @@
           <t>3721079049</t>
         </is>
       </c>
-      <c r="H410" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:23:23</t>
-        </is>
+      <c r="H410" s="1" t="n">
+        <v>44153.84957175926</v>
       </c>
       <c r="I410" t="n">
         <v>0</v>
@@ -30419,10 +29618,8 @@
           <t>3721081196</t>
         </is>
       </c>
-      <c r="H411" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:22:47</t>
-        </is>
+      <c r="H411" s="1" t="n">
+        <v>44153.84915509259</v>
       </c>
       <c r="I411" t="n">
         <v>127</v>
@@ -30494,10 +29691,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H412" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:22:38</t>
-        </is>
+      <c r="H412" s="1" t="n">
+        <v>44153.84905092593</v>
       </c>
       <c r="I412" t="n">
         <v>0</v>
@@ -30565,10 +29760,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H413" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:21:58</t>
-        </is>
+      <c r="H413" s="1" t="n">
+        <v>44153.84858796297</v>
       </c>
       <c r="I413" t="n">
         <v>3</v>
@@ -30640,10 +29833,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H414" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:21:51</t>
-        </is>
+      <c r="H414" s="1" t="n">
+        <v>44153.84850694444</v>
       </c>
       <c r="I414" t="n">
         <v>5</v>
@@ -30719,10 +29910,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H415" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:21:49</t>
-        </is>
+      <c r="H415" s="1" t="n">
+        <v>44153.8484837963</v>
       </c>
       <c r="I415" t="n">
         <v>16</v>
@@ -30790,10 +29979,8 @@
           <t>3721070000</t>
         </is>
       </c>
-      <c r="H416" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:21:47</t>
-        </is>
+      <c r="H416" s="1" t="n">
+        <v>44153.84846064815</v>
       </c>
       <c r="I416" t="n">
         <v>29</v>
@@ -30869,10 +30056,8 @@
           <t>3721076931</t>
         </is>
       </c>
-      <c r="H417" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:21:40</t>
-        </is>
+      <c r="H417" s="1" t="n">
+        <v>44153.84837962963</v>
       </c>
       <c r="I417" t="n">
         <v>6</v>
@@ -30944,10 +30129,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H418" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:21:08</t>
-        </is>
+      <c r="H418" s="1" t="n">
+        <v>44153.84800925926</v>
       </c>
       <c r="I418" t="n">
         <v>0</v>
@@ -31019,10 +30202,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H419" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:20:57</t>
-        </is>
+      <c r="H419" s="1" t="n">
+        <v>44153.84788194444</v>
       </c>
       <c r="I419" t="n">
         <v>0</v>
@@ -31090,10 +30271,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H420" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:20:56</t>
-        </is>
+      <c r="H420" s="1" t="n">
+        <v>44153.84787037037</v>
       </c>
       <c r="I420" t="n">
         <v>1</v>
@@ -31160,10 +30339,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H421" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:20:51</t>
-        </is>
+      <c r="H421" s="1" t="n">
+        <v>44153.8478125</v>
       </c>
       <c r="I421" t="n">
         <v>13</v>
@@ -31239,10 +30416,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H422" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:20:50</t>
-        </is>
+      <c r="H422" s="1" t="n">
+        <v>44153.84780092593</v>
       </c>
       <c r="I422" t="n">
         <v>0</v>
@@ -31310,10 +30485,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H423" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:20:38</t>
-        </is>
+      <c r="H423" s="1" t="n">
+        <v>44153.84766203703</v>
       </c>
       <c r="I423" t="n">
         <v>1</v>
@@ -31381,10 +30554,8 @@
           <t>3721071130</t>
         </is>
       </c>
-      <c r="H424" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:20:38</t>
-        </is>
+      <c r="H424" s="1" t="n">
+        <v>44153.84766203703</v>
       </c>
       <c r="I424" t="n">
         <v>0</v>
@@ -31456,10 +30627,8 @@
           <t>3721068375</t>
         </is>
       </c>
-      <c r="H425" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:20:25</t>
-        </is>
+      <c r="H425" s="1" t="n">
+        <v>44153.84751157407</v>
       </c>
       <c r="I425" t="n">
         <v>7</v>
@@ -31527,10 +30696,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H426" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:20:22</t>
-        </is>
+      <c r="H426" s="1" t="n">
+        <v>44153.84747685185</v>
       </c>
       <c r="I426" t="n">
         <v>0</v>
@@ -31594,10 +30761,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H427" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:20:21</t>
-        </is>
+      <c r="H427" s="1" t="n">
+        <v>44153.84746527778</v>
       </c>
       <c r="I427" t="n">
         <v>1008</v>
@@ -31665,10 +30830,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H428" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:20:19</t>
-        </is>
+      <c r="H428" s="1" t="n">
+        <v>44153.84744212963</v>
       </c>
       <c r="I428" t="n">
         <v>0</v>
@@ -31740,10 +30903,8 @@
           <t>3721068050</t>
         </is>
       </c>
-      <c r="H429" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:20:08</t>
-        </is>
+      <c r="H429" s="1" t="n">
+        <v>44153.84731481481</v>
       </c>
       <c r="I429" t="n">
         <v>5</v>
@@ -31819,10 +30980,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H430" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:19:56</t>
-        </is>
+      <c r="H430" s="1" t="n">
+        <v>44153.84717592593</v>
       </c>
       <c r="I430" t="n">
         <v>8</v>
@@ -31894,10 +31053,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H431" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:19:53</t>
-        </is>
+      <c r="H431" s="1" t="n">
+        <v>44153.8471412037</v>
       </c>
       <c r="I431" t="n">
         <v>0</v>
@@ -31975,10 +31132,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H432" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:19:51</t>
-        </is>
+      <c r="H432" s="1" t="n">
+        <v>44153.84711805556</v>
       </c>
       <c r="I432" t="n">
         <v>0</v>
@@ -32050,10 +31205,8 @@
           <t>3721062606</t>
         </is>
       </c>
-      <c r="H433" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:19:45</t>
-        </is>
+      <c r="H433" s="1" t="n">
+        <v>44153.84704861111</v>
       </c>
       <c r="I433" t="n">
         <v>16</v>
@@ -32129,10 +31282,8 @@
           <t>3721064533</t>
         </is>
       </c>
-      <c r="H434" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:19:44</t>
-        </is>
+      <c r="H434" s="1" t="n">
+        <v>44153.84703703703</v>
       </c>
       <c r="I434" t="n">
         <v>1</v>
@@ -32208,10 +31359,8 @@
           <t>3721064474</t>
         </is>
       </c>
-      <c r="H435" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:19:41</t>
-        </is>
+      <c r="H435" s="1" t="n">
+        <v>44153.84700231482</v>
       </c>
       <c r="I435" t="n">
         <v>0</v>
@@ -32283,10 +31432,8 @@
           <t>3721061673</t>
         </is>
       </c>
-      <c r="H436" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:19:36</t>
-        </is>
+      <c r="H436" s="1" t="n">
+        <v>44153.84694444444</v>
       </c>
       <c r="I436" t="n">
         <v>1</v>
@@ -32359,10 +31506,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H437" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:19:28</t>
-        </is>
+      <c r="H437" s="1" t="n">
+        <v>44153.84685185185</v>
       </c>
       <c r="I437" t="n">
         <v>223</v>
@@ -32439,10 +31584,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H438" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:19:26</t>
-        </is>
+      <c r="H438" s="1" t="n">
+        <v>44153.8468287037</v>
       </c>
       <c r="I438" t="n">
         <v>0</v>
@@ -32518,10 +31661,8 @@
           <t>3721063531</t>
         </is>
       </c>
-      <c r="H439" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:19:25</t>
-        </is>
+      <c r="H439" s="1" t="n">
+        <v>44153.84681712963</v>
       </c>
       <c r="I439" t="n">
         <v>31</v>
@@ -32597,10 +31738,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H440" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:19:24</t>
-        </is>
+      <c r="H440" s="1" t="n">
+        <v>44153.84680555556</v>
       </c>
       <c r="I440" t="n">
         <v>0</v>
@@ -32664,10 +31803,8 @@
           <t>3721067181</t>
         </is>
       </c>
-      <c r="H441" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:19:23</t>
-        </is>
+      <c r="H441" s="1" t="n">
+        <v>44153.84679398148</v>
       </c>
       <c r="I441" t="n">
         <v>6</v>
@@ -32735,10 +31872,8 @@
           <t>3721064071</t>
         </is>
       </c>
-      <c r="H442" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:19:20</t>
-        </is>
+      <c r="H442" s="1" t="n">
+        <v>44153.84675925926</v>
       </c>
       <c r="I442" t="n">
         <v>0</v>
@@ -32814,10 +31949,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H443" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:19:16</t>
-        </is>
+      <c r="H443" s="1" t="n">
+        <v>44153.84671296296</v>
       </c>
       <c r="I443" t="n">
         <v>0</v>
@@ -32881,10 +32014,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H444" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:19:09</t>
-        </is>
+      <c r="H444" s="1" t="n">
+        <v>44153.84663194444</v>
       </c>
       <c r="I444" t="n">
         <v>6</v>
@@ -32960,10 +32091,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H445" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:19:07</t>
-        </is>
+      <c r="H445" s="1" t="n">
+        <v>44153.8466087963</v>
       </c>
       <c r="I445" t="n">
         <v>1</v>
@@ -33035,10 +32164,8 @@
           <t>3721066854</t>
         </is>
       </c>
-      <c r="H446" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:19:05</t>
-        </is>
+      <c r="H446" s="1" t="n">
+        <v>44153.84658564815</v>
       </c>
       <c r="I446" t="n">
         <v>0</v>
@@ -33110,10 +32237,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H447" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:18:54</t>
-        </is>
+      <c r="H447" s="1" t="n">
+        <v>44153.84645833333</v>
       </c>
       <c r="I447" t="n">
         <v>0</v>
@@ -33177,10 +32302,8 @@
           <t>3721063531</t>
         </is>
       </c>
-      <c r="H448" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:18:52</t>
-        </is>
+      <c r="H448" s="1" t="n">
+        <v>44153.84643518519</v>
       </c>
       <c r="I448" t="n">
         <v>5</v>
@@ -33240,10 +32363,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H449" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:18:50</t>
-        </is>
+      <c r="H449" s="1" t="n">
+        <v>44153.84641203703</v>
       </c>
       <c r="I449" t="n">
         <v>0</v>
@@ -33312,10 +32433,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H450" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:18:48</t>
-        </is>
+      <c r="H450" s="1" t="n">
+        <v>44153.84638888889</v>
       </c>
       <c r="I450" t="n">
         <v>1</v>
@@ -33387,10 +32506,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H451" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:18:45</t>
-        </is>
+      <c r="H451" s="1" t="n">
+        <v>44153.84635416666</v>
       </c>
       <c r="I451" t="n">
         <v>0</v>
@@ -33460,10 +32577,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H452" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:18:41</t>
-        </is>
+      <c r="H452" s="1" t="n">
+        <v>44153.84630787037</v>
       </c>
       <c r="I452" t="n">
         <v>0</v>
@@ -33527,10 +32642,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H453" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:18:39</t>
-        </is>
+      <c r="H453" s="1" t="n">
+        <v>44153.84628472223</v>
       </c>
       <c r="I453" t="n">
         <v>4</v>
@@ -33602,10 +32715,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H454" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:18:36</t>
-        </is>
+      <c r="H454" s="1" t="n">
+        <v>44153.84625</v>
       </c>
       <c r="I454" t="n">
         <v>12</v>
@@ -33681,10 +32792,8 @@
           <t>3721066263</t>
         </is>
       </c>
-      <c r="H455" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:18:35</t>
-        </is>
+      <c r="H455" s="1" t="n">
+        <v>44153.84623842593</v>
       </c>
       <c r="I455" t="n">
         <v>1</v>
@@ -33748,10 +32857,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H456" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:18:34</t>
-        </is>
+      <c r="H456" s="1" t="n">
+        <v>44153.84622685185</v>
       </c>
       <c r="I456" t="n">
         <v>0</v>
@@ -33820,10 +32927,8 @@
           <t>3721058627</t>
         </is>
       </c>
-      <c r="H457" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:18:34</t>
-        </is>
+      <c r="H457" s="1" t="n">
+        <v>44153.84622685185</v>
       </c>
       <c r="I457" t="n">
         <v>18</v>
@@ -33891,10 +32996,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H458" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:18:32</t>
-        </is>
+      <c r="H458" s="1" t="n">
+        <v>44153.8462037037</v>
       </c>
       <c r="I458" t="n">
         <v>0</v>
@@ -33958,10 +33061,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H459" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:18:29</t>
-        </is>
+      <c r="H459" s="1" t="n">
+        <v>44153.84616898148</v>
       </c>
       <c r="I459" t="n">
         <v>0</v>
@@ -34029,10 +33130,8 @@
           <t>3721061673</t>
         </is>
       </c>
-      <c r="H460" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:18:25</t>
-        </is>
+      <c r="H460" s="1" t="n">
+        <v>44153.84612268519</v>
       </c>
       <c r="I460" t="n">
         <v>0</v>
@@ -34104,10 +33203,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H461" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:18:19</t>
-        </is>
+      <c r="H461" s="1" t="n">
+        <v>44153.84605324074</v>
       </c>
       <c r="I461" t="n">
         <v>63</v>
@@ -34179,10 +33276,8 @@
           <t>3721062693</t>
         </is>
       </c>
-      <c r="H462" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:18:13</t>
-        </is>
+      <c r="H462" s="1" t="n">
+        <v>44153.84598379629</v>
       </c>
       <c r="I462" t="n">
         <v>198</v>
@@ -34250,10 +33345,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H463" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:18:13</t>
-        </is>
+      <c r="H463" s="1" t="n">
+        <v>44153.84598379629</v>
       </c>
       <c r="I463" t="n">
         <v>76</v>
@@ -34317,10 +33410,8 @@
           <t>3721065762</t>
         </is>
       </c>
-      <c r="H464" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:18:12</t>
-        </is>
+      <c r="H464" s="1" t="n">
+        <v>44153.84597222223</v>
       </c>
       <c r="I464" t="n">
         <v>4</v>
@@ -34392,10 +33483,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H465" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:18:11</t>
-        </is>
+      <c r="H465" s="1" t="n">
+        <v>44153.84596064815</v>
       </c>
       <c r="I465" t="n">
         <v>1</v>
@@ -34471,10 +33560,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H466" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:18:09</t>
-        </is>
+      <c r="H466" s="1" t="n">
+        <v>44153.8459375</v>
       </c>
       <c r="I466" t="n">
         <v>0</v>
@@ -34542,10 +33629,8 @@
           <t>3721062606</t>
         </is>
       </c>
-      <c r="H467" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:18:08</t>
-        </is>
+      <c r="H467" s="1" t="n">
+        <v>44153.84592592593</v>
       </c>
       <c r="I467" t="n">
         <v>2</v>
@@ -34629,10 +33714,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H468" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:18:07</t>
-        </is>
+      <c r="H468" s="1" t="n">
+        <v>44153.84591435185</v>
       </c>
       <c r="I468" t="n">
         <v>864</v>
@@ -34708,10 +33791,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H469" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:18:06</t>
-        </is>
+      <c r="H469" s="1" t="n">
+        <v>44153.84590277778</v>
       </c>
       <c r="I469" t="n">
         <v>9</v>
@@ -34783,10 +33864,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H470" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:17:58</t>
-        </is>
+      <c r="H470" s="1" t="n">
+        <v>44153.84581018519</v>
       </c>
       <c r="I470" t="n">
         <v>25</v>
@@ -34854,10 +33933,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H471" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:17:56</t>
-        </is>
+      <c r="H471" s="1" t="n">
+        <v>44153.84578703704</v>
       </c>
       <c r="I471" t="n">
         <v>0</v>
@@ -34925,10 +34002,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H472" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:17:55</t>
-        </is>
+      <c r="H472" s="1" t="n">
+        <v>44153.84577546296</v>
       </c>
       <c r="I472" t="n">
         <v>1</v>
@@ -34996,10 +34071,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H473" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:17:53</t>
-        </is>
+      <c r="H473" s="1" t="n">
+        <v>44153.84575231482</v>
       </c>
       <c r="I473" t="n">
         <v>45</v>
@@ -35071,10 +34144,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H474" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:17:49</t>
-        </is>
+      <c r="H474" s="1" t="n">
+        <v>44153.84570601852</v>
       </c>
       <c r="I474" t="n">
         <v>0</v>
@@ -35134,10 +34205,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H475" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:17:45</t>
-        </is>
+      <c r="H475" s="1" t="n">
+        <v>44153.84565972222</v>
       </c>
       <c r="I475" t="n">
         <v>0</v>
@@ -35209,10 +34278,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H476" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:17:45</t>
-        </is>
+      <c r="H476" s="1" t="n">
+        <v>44153.84565972222</v>
       </c>
       <c r="I476" t="n">
         <v>3</v>
@@ -35288,10 +34355,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H477" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:17:45</t>
-        </is>
+      <c r="H477" s="1" t="n">
+        <v>44153.84565972222</v>
       </c>
       <c r="I477" t="n">
         <v>0</v>
@@ -35359,10 +34424,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H478" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:17:44</t>
-        </is>
+      <c r="H478" s="1" t="n">
+        <v>44153.84564814815</v>
       </c>
       <c r="I478" t="n">
         <v>10</v>
@@ -35426,10 +34489,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H479" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:17:43</t>
-        </is>
+      <c r="H479" s="1" t="n">
+        <v>44153.84563657407</v>
       </c>
       <c r="I479" t="n">
         <v>47</v>
@@ -35498,10 +34559,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H480" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:17:43</t>
-        </is>
+      <c r="H480" s="1" t="n">
+        <v>44153.84563657407</v>
       </c>
       <c r="I480" t="n">
         <v>8</v>
@@ -35577,10 +34636,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H481" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:17:41</t>
-        </is>
+      <c r="H481" s="1" t="n">
+        <v>44153.84561342592</v>
       </c>
       <c r="I481" t="n">
         <v>4</v>
@@ -35648,10 +34705,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H482" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:17:38</t>
-        </is>
+      <c r="H482" s="1" t="n">
+        <v>44153.8455787037</v>
       </c>
       <c r="I482" t="n">
         <v>0</v>
@@ -35727,10 +34782,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H483" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:17:37</t>
-        </is>
+      <c r="H483" s="1" t="n">
+        <v>44153.84556712963</v>
       </c>
       <c r="I483" t="n">
         <v>0</v>
@@ -35794,10 +34847,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H484" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:17:37</t>
-        </is>
+      <c r="H484" s="1" t="n">
+        <v>44153.84556712963</v>
       </c>
       <c r="I484" t="n">
         <v>0</v>
@@ -35869,10 +34920,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H485" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:17:36</t>
-        </is>
+      <c r="H485" s="1" t="n">
+        <v>44153.84555555556</v>
       </c>
       <c r="I485" t="n">
         <v>0</v>
@@ -35940,10 +34989,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H486" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:17:36</t>
-        </is>
+      <c r="H486" s="1" t="n">
+        <v>44153.84555555556</v>
       </c>
       <c r="I486" t="n">
         <v>0</v>
@@ -36019,10 +35066,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H487" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:17:36</t>
-        </is>
+      <c r="H487" s="1" t="n">
+        <v>44153.84555555556</v>
       </c>
       <c r="I487" t="n">
         <v>0</v>
@@ -36094,10 +35139,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H488" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:17:36</t>
-        </is>
+      <c r="H488" s="1" t="n">
+        <v>44153.84555555556</v>
       </c>
       <c r="I488" t="n">
         <v>7</v>
@@ -36173,10 +35216,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H489" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:17:36</t>
-        </is>
+      <c r="H489" s="1" t="n">
+        <v>44153.84555555556</v>
       </c>
       <c r="I489" t="n">
         <v>0</v>
@@ -36248,10 +35289,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H490" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:17:33</t>
-        </is>
+      <c r="H490" s="1" t="n">
+        <v>44153.84552083333</v>
       </c>
       <c r="I490" t="n">
         <v>208</v>
@@ -36315,10 +35354,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H491" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:17:32</t>
-        </is>
+      <c r="H491" s="1" t="n">
+        <v>44153.84550925926</v>
       </c>
       <c r="I491" t="n">
         <v>0</v>
@@ -36394,10 +35431,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H492" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:17:31</t>
-        </is>
+      <c r="H492" s="1" t="n">
+        <v>44153.84549768519</v>
       </c>
       <c r="I492" t="n">
         <v>1</v>
@@ -36471,10 +35506,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H493" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:17:30</t>
-        </is>
+      <c r="H493" s="1" t="n">
+        <v>44153.84548611111</v>
       </c>
       <c r="I493" t="n">
         <v>2</v>
@@ -36546,10 +35579,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H494" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:17:29</t>
-        </is>
+      <c r="H494" s="1" t="n">
+        <v>44153.84547453704</v>
       </c>
       <c r="I494" t="n">
         <v>3</v>
@@ -36625,10 +35656,8 @@
           <t>3721061673</t>
         </is>
       </c>
-      <c r="H495" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:17:23</t>
-        </is>
+      <c r="H495" s="1" t="n">
+        <v>44153.84540509259</v>
       </c>
       <c r="I495" t="n">
         <v>52</v>
@@ -36700,10 +35729,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H496" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:17:23</t>
-        </is>
+      <c r="H496" s="1" t="n">
+        <v>44153.84540509259</v>
       </c>
       <c r="I496" t="n">
         <v>1</v>
@@ -36771,10 +35798,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H497" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:17:22</t>
-        </is>
+      <c r="H497" s="1" t="n">
+        <v>44153.84539351852</v>
       </c>
       <c r="I497" t="n">
         <v>0</v>
@@ -36842,10 +35867,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H498" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:17:21</t>
-        </is>
+      <c r="H498" s="1" t="n">
+        <v>44153.84538194445</v>
       </c>
       <c r="I498" t="n">
         <v>0</v>
@@ -36913,10 +35936,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H499" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:17:20</t>
-        </is>
+      <c r="H499" s="1" t="n">
+        <v>44153.84537037037</v>
       </c>
       <c r="I499" t="n">
         <v>0</v>
@@ -36989,10 +36010,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H500" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:17:19</t>
-        </is>
+      <c r="H500" s="1" t="n">
+        <v>44153.84535879629</v>
       </c>
       <c r="I500" t="n">
         <v>0</v>
@@ -37060,10 +36079,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H501" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:17:18</t>
-        </is>
+      <c r="H501" s="1" t="n">
+        <v>44153.84534722222</v>
       </c>
       <c r="I501" t="n">
         <v>3</v>
@@ -37135,10 +36152,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H502" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:17:14</t>
-        </is>
+      <c r="H502" s="1" t="n">
+        <v>44153.84530092592</v>
       </c>
       <c r="I502" t="n">
         <v>0</v>
@@ -37198,10 +36213,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H503" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:17:13</t>
-        </is>
+      <c r="H503" s="1" t="n">
+        <v>44153.84528935186</v>
       </c>
       <c r="I503" t="n">
         <v>1</v>
@@ -37273,10 +36286,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H504" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:17:12</t>
-        </is>
+      <c r="H504" s="1" t="n">
+        <v>44153.84527777778</v>
       </c>
       <c r="I504" t="n">
         <v>1690</v>
@@ -37352,10 +36363,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H505" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:17:10</t>
-        </is>
+      <c r="H505" s="1" t="n">
+        <v>44153.84525462963</v>
       </c>
       <c r="I505" t="n">
         <v>3</v>
@@ -37423,10 +36432,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H506" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:17:10</t>
-        </is>
+      <c r="H506" s="1" t="n">
+        <v>44153.84525462963</v>
       </c>
       <c r="I506" t="n">
         <v>5</v>
@@ -37494,10 +36501,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H507" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:17:10</t>
-        </is>
+      <c r="H507" s="1" t="n">
+        <v>44153.84525462963</v>
       </c>
       <c r="I507" t="n">
         <v>0</v>
@@ -37573,10 +36578,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H508" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:17:06</t>
-        </is>
+      <c r="H508" s="1" t="n">
+        <v>44153.84520833333</v>
       </c>
       <c r="I508" t="n">
         <v>0</v>
@@ -37640,10 +36643,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H509" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:17:05</t>
-        </is>
+      <c r="H509" s="1" t="n">
+        <v>44153.84519675926</v>
       </c>
       <c r="I509" t="n">
         <v>2</v>
@@ -37711,10 +36712,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H510" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:17:05</t>
-        </is>
+      <c r="H510" s="1" t="n">
+        <v>44153.84519675926</v>
       </c>
       <c r="I510" t="n">
         <v>0</v>
@@ -37778,10 +36777,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H511" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:17:05</t>
-        </is>
+      <c r="H511" s="1" t="n">
+        <v>44153.84519675926</v>
       </c>
       <c r="I511" t="n">
         <v>2</v>
@@ -37849,10 +36846,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H512" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:17:04</t>
-        </is>
+      <c r="H512" s="1" t="n">
+        <v>44153.84518518519</v>
       </c>
       <c r="I512" t="n">
         <v>4</v>
@@ -37924,10 +36919,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H513" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:17:02</t>
-        </is>
+      <c r="H513" s="1" t="n">
+        <v>44153.84516203704</v>
       </c>
       <c r="I513" t="n">
         <v>0</v>
@@ -38003,10 +36996,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H514" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:16:59</t>
-        </is>
+      <c r="H514" s="1" t="n">
+        <v>44153.84512731482</v>
       </c>
       <c r="I514" t="n">
         <v>61</v>
@@ -38082,10 +37073,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H515" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:16:55</t>
-        </is>
+      <c r="H515" s="1" t="n">
+        <v>44153.84508101852</v>
       </c>
       <c r="I515" t="n">
         <v>0</v>
@@ -38149,10 +37138,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H516" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:16:54</t>
-        </is>
+      <c r="H516" s="1" t="n">
+        <v>44153.84506944445</v>
       </c>
       <c r="I516" t="n">
         <v>0</v>
@@ -38228,10 +37215,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H517" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:16:54</t>
-        </is>
+      <c r="H517" s="1" t="n">
+        <v>44153.84506944445</v>
       </c>
       <c r="I517" t="n">
         <v>8</v>
@@ -38307,10 +37292,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H518" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:16:53</t>
-        </is>
+      <c r="H518" s="1" t="n">
+        <v>44153.84505787037</v>
       </c>
       <c r="I518" t="n">
         <v>0</v>
@@ -38370,10 +37353,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H519" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:16:53</t>
-        </is>
+      <c r="H519" s="1" t="n">
+        <v>44153.84505787037</v>
       </c>
       <c r="I519" t="n">
         <v>2</v>
@@ -38449,10 +37430,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H520" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:16:52</t>
-        </is>
+      <c r="H520" s="1" t="n">
+        <v>44153.84504629629</v>
       </c>
       <c r="I520" t="n">
         <v>5</v>
@@ -38524,10 +37503,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H521" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:16:51</t>
-        </is>
+      <c r="H521" s="1" t="n">
+        <v>44153.84503472222</v>
       </c>
       <c r="I521" t="n">
         <v>0</v>
@@ -38599,10 +37576,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H522" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:16:50</t>
-        </is>
+      <c r="H522" s="1" t="n">
+        <v>44153.84502314815</v>
       </c>
       <c r="I522" t="n">
         <v>1</v>
@@ -38666,10 +37641,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H523" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:16:50</t>
-        </is>
+      <c r="H523" s="1" t="n">
+        <v>44153.84502314815</v>
       </c>
       <c r="I523" t="n">
         <v>0</v>
@@ -38745,10 +37718,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H524" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:16:49</t>
-        </is>
+      <c r="H524" s="1" t="n">
+        <v>44153.84501157407</v>
       </c>
       <c r="I524" t="n">
         <v>0</v>
@@ -38816,10 +37787,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H525" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:16:47</t>
-        </is>
+      <c r="H525" s="1" t="n">
+        <v>44153.84498842592</v>
       </c>
       <c r="I525" t="n">
         <v>0</v>
@@ -38895,10 +37864,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H526" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:16:47</t>
-        </is>
+      <c r="H526" s="1" t="n">
+        <v>44153.84498842592</v>
       </c>
       <c r="I526" t="n">
         <v>1</v>
@@ -38974,10 +37941,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H527" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:16:40</t>
-        </is>
+      <c r="H527" s="1" t="n">
+        <v>44153.84490740741</v>
       </c>
       <c r="I527" t="n">
         <v>1046</v>
@@ -39053,10 +38018,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H528" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:16:39</t>
-        </is>
+      <c r="H528" s="1" t="n">
+        <v>44153.84489583333</v>
       </c>
       <c r="I528" t="n">
         <v>0</v>
@@ -39124,10 +38087,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H529" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:16:38</t>
-        </is>
+      <c r="H529" s="1" t="n">
+        <v>44153.84488425926</v>
       </c>
       <c r="I529" t="n">
         <v>0</v>
@@ -39195,10 +38156,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H530" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:16:36</t>
-        </is>
+      <c r="H530" s="1" t="n">
+        <v>44153.84486111111</v>
       </c>
       <c r="I530" t="n">
         <v>0</v>
@@ -39262,10 +38221,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H531" t="inlineStr">
-        <is>
-          <t>2020-11-18 20:16:32</t>
-        </is>
+      <c r="H531" s="1" t="n">
+        <v>44153.84481481482</v>
       </c>
       <c r="I531" t="n">
         <v>1</v>
